--- a/period_data/stock_classification.xlsx
+++ b/period_data/stock_classification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\t2m-project\t2m-pycode\period_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DACD40-C404-4762-BA22-1710D98582C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DF74E-0836-4A27-8A33-5CB6DCF14507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">full_stock_list!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">stock_classification!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">stock_classification!$A$1:$F$635</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12415" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12415" uniqueCount="1762">
   <si>
     <t>PGC</t>
   </si>
@@ -5331,9 +5331,6 @@
   </si>
   <si>
     <t>HNX</t>
-  </si>
-  <si>
-    <t>hnx</t>
   </si>
 </sst>
 </file>
@@ -5418,7 +5415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5427,6 +5424,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28260,7 +28258,7 @@
   <dimension ref="A1:F635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28298,7 +28296,7 @@
         <f>period_stock_list!A2</f>
         <v>AAA</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C2" t="str">
@@ -28323,7 +28321,7 @@
         <f>period_stock_list!A3</f>
         <v>AAH</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C3" t="str">
@@ -28348,8 +28346,8 @@
         <f>period_stock_list!A4</f>
         <v>AAS</v>
       </c>
-      <c r="B4" t="s">
-        <v>1759</v>
+      <c r="B4" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(A4,full_stock_list!$A:$B,2,0)</f>
@@ -28373,8 +28371,8 @@
         <f>period_stock_list!A5</f>
         <v>AAT</v>
       </c>
-      <c r="B5" t="s">
-        <v>1761</v>
+      <c r="B5" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(A5,full_stock_list!$A:$B,2,0)</f>
@@ -28398,8 +28396,8 @@
         <f>period_stock_list!A6</f>
         <v>AAV</v>
       </c>
-      <c r="B6" t="s">
-        <v>1760</v>
+      <c r="B6" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(A6,full_stock_list!$A:$B,2,0)</f>
@@ -28423,7 +28421,7 @@
         <f>period_stock_list!A7</f>
         <v>ABB</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C7" t="str">
@@ -28448,8 +28446,8 @@
         <f>period_stock_list!A8</f>
         <v>ABC</v>
       </c>
-      <c r="B8" t="s">
-        <v>1759</v>
+      <c r="B8" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(A8,full_stock_list!$A:$B,2,0)</f>
@@ -28473,7 +28471,7 @@
         <f>period_stock_list!A9</f>
         <v>ABI</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C9" t="str">
@@ -28498,7 +28496,7 @@
         <f>period_stock_list!A10</f>
         <v>ABS</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C10" t="str">
@@ -28523,8 +28521,8 @@
         <f>period_stock_list!A11</f>
         <v>ABW</v>
       </c>
-      <c r="B11" t="s">
-        <v>1759</v>
+      <c r="B11" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(A11,full_stock_list!$A:$B,2,0)</f>
@@ -28548,7 +28546,7 @@
         <f>period_stock_list!A12</f>
         <v>ACB</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C12" t="str">
@@ -28573,7 +28571,7 @@
         <f>period_stock_list!A13</f>
         <v>ACC</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C13" t="str">
@@ -28598,8 +28596,8 @@
         <f>period_stock_list!A14</f>
         <v>ACG</v>
       </c>
-      <c r="B14" t="s">
-        <v>1760</v>
+      <c r="B14" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(A14,full_stock_list!$A:$B,2,0)</f>
@@ -28623,7 +28621,7 @@
         <f>period_stock_list!A15</f>
         <v>ACL</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C15" t="str">
@@ -28648,8 +28646,8 @@
         <f>period_stock_list!A16</f>
         <v>ACM</v>
       </c>
-      <c r="B16" t="s">
-        <v>1759</v>
+      <c r="B16" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(A16,full_stock_list!$A:$B,2,0)</f>
@@ -28673,7 +28671,7 @@
         <f>period_stock_list!A17</f>
         <v>ACV</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C17" t="str">
@@ -28698,7 +28696,7 @@
         <f>period_stock_list!A18</f>
         <v>ADG</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C18" t="str">
@@ -28723,7 +28721,7 @@
         <f>period_stock_list!A19</f>
         <v>ADS</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C19" t="str">
@@ -28748,8 +28746,8 @@
         <f>period_stock_list!A20</f>
         <v>AFX</v>
       </c>
-      <c r="B20" t="s">
-        <v>1759</v>
+      <c r="B20" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(A20,full_stock_list!$A:$B,2,0)</f>
@@ -28773,8 +28771,8 @@
         <f>period_stock_list!A21</f>
         <v>AGG</v>
       </c>
-      <c r="B21" t="s">
-        <v>1760</v>
+      <c r="B21" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(A21,full_stock_list!$A:$B,2,0)</f>
@@ -28798,8 +28796,8 @@
         <f>period_stock_list!A22</f>
         <v>AGM</v>
       </c>
-      <c r="B22" t="s">
-        <v>1761</v>
+      <c r="B22" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(A22,full_stock_list!$A:$B,2,0)</f>
@@ -28823,7 +28821,7 @@
         <f>period_stock_list!A23</f>
         <v>AGR</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C23" t="str">
@@ -28848,8 +28846,8 @@
         <f>period_stock_list!A24</f>
         <v>AMD</v>
       </c>
-      <c r="B24" t="s">
-        <v>1759</v>
+      <c r="B24" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(A24,full_stock_list!$A:$B,2,0)</f>
@@ -28873,8 +28871,8 @@
         <f>period_stock_list!A25</f>
         <v>AMS</v>
       </c>
-      <c r="B25" t="s">
-        <v>1759</v>
+      <c r="B25" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(A25,full_stock_list!$A:$B,2,0)</f>
@@ -28898,8 +28896,8 @@
         <f>period_stock_list!A26</f>
         <v>AMV</v>
       </c>
-      <c r="B26" t="s">
-        <v>1759</v>
+      <c r="B26" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(A26,full_stock_list!$A:$B,2,0)</f>
@@ -28923,8 +28921,8 @@
         <f>period_stock_list!A27</f>
         <v>ANV</v>
       </c>
-      <c r="B27" t="s">
-        <v>1761</v>
+      <c r="B27" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(A27,full_stock_list!$A:$B,2,0)</f>
@@ -28948,8 +28946,8 @@
         <f>period_stock_list!A28</f>
         <v>APC</v>
       </c>
-      <c r="B28" t="s">
-        <v>1761</v>
+      <c r="B28" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(A28,full_stock_list!$A:$B,2,0)</f>
@@ -28973,7 +28971,7 @@
         <f>period_stock_list!A29</f>
         <v>APG</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C29" t="str">
@@ -28998,7 +28996,7 @@
         <f>period_stock_list!A30</f>
         <v>APH</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C30" t="str">
@@ -29023,7 +29021,7 @@
         <f>period_stock_list!A31</f>
         <v>API</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C31" t="str">
@@ -29048,8 +29046,8 @@
         <f>period_stock_list!A32</f>
         <v>APS</v>
       </c>
-      <c r="B32" t="s">
-        <v>1759</v>
+      <c r="B32" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(A32,full_stock_list!$A:$B,2,0)</f>
@@ -29073,7 +29071,7 @@
         <f>period_stock_list!A33</f>
         <v>ART</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C33" t="str">
@@ -29098,8 +29096,8 @@
         <f>period_stock_list!A34</f>
         <v>ASM</v>
       </c>
-      <c r="B34" t="s">
-        <v>1761</v>
+      <c r="B34" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(A34,full_stock_list!$A:$B,2,0)</f>
@@ -29123,7 +29121,7 @@
         <f>period_stock_list!A35</f>
         <v>ASP</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C35" t="str">
@@ -29148,7 +29146,7 @@
         <f>period_stock_list!A36</f>
         <v>AST</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C36" t="str">
@@ -29173,8 +29171,8 @@
         <f>period_stock_list!A37</f>
         <v>ATG</v>
       </c>
-      <c r="B37" t="s">
-        <v>1759</v>
+      <c r="B37" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(A37,full_stock_list!$A:$B,2,0)</f>
@@ -29198,8 +29196,8 @@
         <f>period_stock_list!A38</f>
         <v>AVF</v>
       </c>
-      <c r="B38" t="s">
-        <v>1759</v>
+      <c r="B38" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(A38,full_stock_list!$A:$B,2,0)</f>
@@ -29223,8 +29221,8 @@
         <f>period_stock_list!A39</f>
         <v>BAB</v>
       </c>
-      <c r="B39" t="s">
-        <v>1759</v>
+      <c r="B39" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(A39,full_stock_list!$A:$B,2,0)</f>
@@ -29248,7 +29246,7 @@
         <f>period_stock_list!A40</f>
         <v>BAF</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C40" t="str">
@@ -29273,7 +29271,7 @@
         <f>period_stock_list!A41</f>
         <v>BCA</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C41" t="str">
@@ -29298,8 +29296,8 @@
         <f>period_stock_list!A42</f>
         <v>BCC</v>
       </c>
-      <c r="B42" t="s">
-        <v>1759</v>
+      <c r="B42" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(A42,full_stock_list!$A:$B,2,0)</f>
@@ -29323,7 +29321,7 @@
         <f>period_stock_list!A43</f>
         <v>BCE</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C43" t="str">
@@ -29348,7 +29346,7 @@
         <f>period_stock_list!A44</f>
         <v>BCG</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C44" t="str">
@@ -29373,7 +29371,7 @@
         <f>period_stock_list!A45</f>
         <v>BCM</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C45" t="str">
@@ -29398,7 +29396,7 @@
         <f>period_stock_list!A46</f>
         <v>BCR</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C46" t="str">
@@ -29423,8 +29421,8 @@
         <f>period_stock_list!A47</f>
         <v>BDT</v>
       </c>
-      <c r="B47" t="s">
-        <v>1761</v>
+      <c r="B47" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(A47,full_stock_list!$A:$B,2,0)</f>
@@ -29448,8 +29446,8 @@
         <f>period_stock_list!A48</f>
         <v>BFC</v>
       </c>
-      <c r="B48" t="s">
-        <v>1760</v>
+      <c r="B48" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(A48,full_stock_list!$A:$B,2,0)</f>
@@ -29473,7 +29471,7 @@
         <f>period_stock_list!A49</f>
         <v>BIC</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C49" t="str">
@@ -29498,8 +29496,8 @@
         <f>period_stock_list!A50</f>
         <v>BID</v>
       </c>
-      <c r="B50" t="s">
-        <v>1760</v>
+      <c r="B50" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(A50,full_stock_list!$A:$B,2,0)</f>
@@ -29523,7 +29521,7 @@
         <f>period_stock_list!A51</f>
         <v>BIG</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C51" t="str">
@@ -29548,8 +29546,8 @@
         <f>period_stock_list!A52</f>
         <v>BII</v>
       </c>
-      <c r="B52" t="s">
-        <v>1761</v>
+      <c r="B52" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(A52,full_stock_list!$A:$B,2,0)</f>
@@ -29573,8 +29571,8 @@
         <f>period_stock_list!A53</f>
         <v>BKG</v>
       </c>
-      <c r="B53" t="s">
-        <v>1760</v>
+      <c r="B53" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(A53,full_stock_list!$A:$B,2,0)</f>
@@ -29598,8 +29596,8 @@
         <f>period_stock_list!A54</f>
         <v>BMC</v>
       </c>
-      <c r="B54" t="s">
-        <v>1760</v>
+      <c r="B54" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(A54,full_stock_list!$A:$B,2,0)</f>
@@ -29623,7 +29621,7 @@
         <f>period_stock_list!A55</f>
         <v>BMI</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C55" t="str">
@@ -29648,8 +29646,8 @@
         <f>period_stock_list!A56</f>
         <v>BMP</v>
       </c>
-      <c r="B56" t="s">
-        <v>1761</v>
+      <c r="B56" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(A56,full_stock_list!$A:$B,2,0)</f>
@@ -29673,8 +29671,8 @@
         <f>period_stock_list!A57</f>
         <v>BMS</v>
       </c>
-      <c r="B57" t="s">
-        <v>1759</v>
+      <c r="B57" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(A57,full_stock_list!$A:$B,2,0)</f>
@@ -29698,8 +29696,8 @@
         <f>period_stock_list!A58</f>
         <v>BNA</v>
       </c>
-      <c r="B58" t="s">
-        <v>1759</v>
+      <c r="B58" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(A58,full_stock_list!$A:$B,2,0)</f>
@@ -29723,8 +29721,8 @@
         <f>period_stock_list!A59</f>
         <v>BOT</v>
       </c>
-      <c r="B59" t="s">
-        <v>1759</v>
+      <c r="B59" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(A59,full_stock_list!$A:$B,2,0)</f>
@@ -29748,8 +29746,8 @@
         <f>period_stock_list!A60</f>
         <v>BSI</v>
       </c>
-      <c r="B60" t="s">
-        <v>1760</v>
+      <c r="B60" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(A60,full_stock_list!$A:$B,2,0)</f>
@@ -29773,8 +29771,8 @@
         <f>period_stock_list!A61</f>
         <v>BSR</v>
       </c>
-      <c r="B61" t="s">
-        <v>1761</v>
+      <c r="B61" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(A61,full_stock_list!$A:$B,2,0)</f>
@@ -29798,8 +29796,8 @@
         <f>period_stock_list!A62</f>
         <v>BTN</v>
       </c>
-      <c r="B62" t="s">
-        <v>1761</v>
+      <c r="B62" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(A62,full_stock_list!$A:$B,2,0)</f>
@@ -29823,7 +29821,7 @@
         <f>period_stock_list!A63</f>
         <v>BTP</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C63" t="str">
@@ -29848,8 +29846,8 @@
         <f>period_stock_list!A64</f>
         <v>BTS</v>
       </c>
-      <c r="B64" t="s">
-        <v>1759</v>
+      <c r="B64" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP(A64,full_stock_list!$A:$B,2,0)</f>
@@ -29873,7 +29871,7 @@
         <f>period_stock_list!A65</f>
         <v>BVB</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C65" t="str">
@@ -29898,7 +29896,7 @@
         <f>period_stock_list!A66</f>
         <v>BVG</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C66" t="str">
@@ -29923,8 +29921,8 @@
         <f>period_stock_list!A67</f>
         <v>BVH</v>
       </c>
-      <c r="B67" t="s">
-        <v>1761</v>
+      <c r="B67" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(A67,full_stock_list!$A:$B,2,0)</f>
@@ -29948,8 +29946,8 @@
         <f>period_stock_list!A68</f>
         <v>BVS</v>
       </c>
-      <c r="B68" t="s">
-        <v>1759</v>
+      <c r="B68" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(A68,full_stock_list!$A:$B,2,0)</f>
@@ -29973,7 +29971,7 @@
         <f>period_stock_list!A69</f>
         <v>BWE</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C69" t="str">
@@ -29998,7 +29996,7 @@
         <f>period_stock_list!A70</f>
         <v>C32</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C70" t="str">
@@ -30023,8 +30021,8 @@
         <f>period_stock_list!A71</f>
         <v>C47</v>
       </c>
-      <c r="B71" t="s">
-        <v>1760</v>
+      <c r="B71" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(A71,full_stock_list!$A:$B,2,0)</f>
@@ -30048,8 +30046,8 @@
         <f>period_stock_list!A72</f>
         <v>C4G</v>
       </c>
-      <c r="B72" t="s">
-        <v>1759</v>
+      <c r="B72" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(A72,full_stock_list!$A:$B,2,0)</f>
@@ -30073,7 +30071,7 @@
         <f>period_stock_list!A73</f>
         <v>C69</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C73" t="str">
@@ -30098,8 +30096,8 @@
         <f>period_stock_list!A74</f>
         <v>CAG</v>
       </c>
-      <c r="B74" t="s">
-        <v>1759</v>
+      <c r="B74" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP(A74,full_stock_list!$A:$B,2,0)</f>
@@ -30123,7 +30121,7 @@
         <f>period_stock_list!A75</f>
         <v>CCL</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C75" t="str">
@@ -30148,7 +30146,7 @@
         <f>period_stock_list!A76</f>
         <v>CDC</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C76" t="str">
@@ -30173,8 +30171,8 @@
         <f>period_stock_list!A77</f>
         <v>CDO</v>
       </c>
-      <c r="B77" t="s">
-        <v>1759</v>
+      <c r="B77" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(A77,full_stock_list!$A:$B,2,0)</f>
@@ -30198,8 +30196,8 @@
         <f>period_stock_list!A78</f>
         <v>CEN</v>
       </c>
-      <c r="B78" t="s">
-        <v>1761</v>
+      <c r="B78" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C78" t="str">
         <f>VLOOKUP(A78,full_stock_list!$A:$B,2,0)</f>
@@ -30223,8 +30221,8 @@
         <f>period_stock_list!A79</f>
         <v>CEO</v>
       </c>
-      <c r="B79" t="s">
-        <v>1760</v>
+      <c r="B79" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP(A79,full_stock_list!$A:$B,2,0)</f>
@@ -30248,8 +30246,8 @@
         <f>period_stock_list!A80</f>
         <v>CGV</v>
       </c>
-      <c r="B80" t="s">
-        <v>1759</v>
+      <c r="B80" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C80" t="str">
         <f>VLOOKUP(A80,full_stock_list!$A:$B,2,0)</f>
@@ -30273,7 +30271,7 @@
         <f>period_stock_list!A81</f>
         <v>CHS</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C81" t="str">
@@ -30298,7 +30296,7 @@
         <f>period_stock_list!A82</f>
         <v>CIG</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C82" t="str">
@@ -30323,8 +30321,8 @@
         <f>period_stock_list!A83</f>
         <v>CII</v>
       </c>
-      <c r="B83" t="s">
-        <v>1761</v>
+      <c r="B83" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C83" t="str">
         <f>VLOOKUP(A83,full_stock_list!$A:$B,2,0)</f>
@@ -30348,7 +30346,7 @@
         <f>period_stock_list!A84</f>
         <v>CKG</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C84" t="str">
@@ -30373,8 +30371,8 @@
         <f>period_stock_list!A85</f>
         <v>CLX</v>
       </c>
-      <c r="B85" t="s">
-        <v>1759</v>
+      <c r="B85" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C85" t="str">
         <f>VLOOKUP(A85,full_stock_list!$A:$B,2,0)</f>
@@ -30398,7 +30396,7 @@
         <f>period_stock_list!A86</f>
         <v>CMG</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C86" t="str">
@@ -30423,8 +30421,8 @@
         <f>period_stock_list!A87</f>
         <v>CMS</v>
       </c>
-      <c r="B87" t="s">
-        <v>1759</v>
+      <c r="B87" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C87" t="str">
         <f>VLOOKUP(A87,full_stock_list!$A:$B,2,0)</f>
@@ -30448,8 +30446,8 @@
         <f>period_stock_list!A88</f>
         <v>CMT</v>
       </c>
-      <c r="B88" t="s">
-        <v>1759</v>
+      <c r="B88" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C88" t="str">
         <f>VLOOKUP(A88,full_stock_list!$A:$B,2,0)</f>
@@ -30473,7 +30471,7 @@
         <f>period_stock_list!A89</f>
         <v>CMX</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C89" t="str">
@@ -30498,8 +30496,8 @@
         <f>period_stock_list!A90</f>
         <v>CNG</v>
       </c>
-      <c r="B90" t="s">
-        <v>1761</v>
+      <c r="B90" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C90" t="str">
         <f>VLOOKUP(A90,full_stock_list!$A:$B,2,0)</f>
@@ -30523,8 +30521,8 @@
         <f>period_stock_list!A91</f>
         <v>CRC</v>
       </c>
-      <c r="B91" t="s">
-        <v>1761</v>
+      <c r="B91" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C91" t="str">
         <f>VLOOKUP(A91,full_stock_list!$A:$B,2,0)</f>
@@ -30548,7 +30546,7 @@
         <f>period_stock_list!A92</f>
         <v>CRE</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C92" t="str">
@@ -30573,8 +30571,8 @@
         <f>period_stock_list!A93</f>
         <v>CSC</v>
       </c>
-      <c r="B93" t="s">
-        <v>1759</v>
+      <c r="B93" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C93" t="str">
         <f>VLOOKUP(A93,full_stock_list!$A:$B,2,0)</f>
@@ -30598,8 +30596,8 @@
         <f>period_stock_list!A94</f>
         <v>CSI</v>
       </c>
-      <c r="B94" t="s">
-        <v>1759</v>
+      <c r="B94" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C94" t="str">
         <f>VLOOKUP(A94,full_stock_list!$A:$B,2,0)</f>
@@ -30623,7 +30621,7 @@
         <f>period_stock_list!A95</f>
         <v>CSM</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C95" t="str">
@@ -30648,8 +30646,8 @@
         <f>period_stock_list!A96</f>
         <v>CST</v>
       </c>
-      <c r="B96" t="s">
-        <v>1759</v>
+      <c r="B96" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C96" t="str">
         <f>VLOOKUP(A96,full_stock_list!$A:$B,2,0)</f>
@@ -30673,7 +30671,7 @@
         <f>period_stock_list!A97</f>
         <v>CSV</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C97" t="str">
@@ -30698,8 +30696,8 @@
         <f>period_stock_list!A98</f>
         <v>CTC</v>
       </c>
-      <c r="B98" t="s">
-        <v>1759</v>
+      <c r="B98" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP(A98,full_stock_list!$A:$B,2,0)</f>
@@ -30723,7 +30721,7 @@
         <f>period_stock_list!A99</f>
         <v>CTD</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C99" t="str">
@@ -30748,7 +30746,7 @@
         <f>period_stock_list!A100</f>
         <v>CTF</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C100" t="str">
@@ -30773,8 +30771,8 @@
         <f>period_stock_list!A101</f>
         <v>CTG</v>
       </c>
-      <c r="B101" t="s">
-        <v>1761</v>
+      <c r="B101" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP(A101,full_stock_list!$A:$B,2,0)</f>
@@ -30798,8 +30796,8 @@
         <f>period_stock_list!A102</f>
         <v>CTI</v>
       </c>
-      <c r="B102" t="s">
-        <v>1760</v>
+      <c r="B102" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP(A102,full_stock_list!$A:$B,2,0)</f>
@@ -30823,8 +30821,8 @@
         <f>period_stock_list!A103</f>
         <v>CTP</v>
       </c>
-      <c r="B103" t="s">
-        <v>1759</v>
+      <c r="B103" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP(A103,full_stock_list!$A:$B,2,0)</f>
@@ -30848,8 +30846,8 @@
         <f>period_stock_list!A104</f>
         <v>CTR</v>
       </c>
-      <c r="B104" t="s">
-        <v>1760</v>
+      <c r="B104" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP(A104,full_stock_list!$A:$B,2,0)</f>
@@ -30873,7 +30871,7 @@
         <f>period_stock_list!A105</f>
         <v>CTS</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C105" t="str">
@@ -30898,8 +30896,8 @@
         <f>period_stock_list!A106</f>
         <v>CVN</v>
       </c>
-      <c r="B106" t="s">
-        <v>1759</v>
+      <c r="B106" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP(A106,full_stock_list!$A:$B,2,0)</f>
@@ -30923,7 +30921,7 @@
         <f>period_stock_list!A107</f>
         <v>CVT</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C107" t="str">
@@ -30948,7 +30946,7 @@
         <f>period_stock_list!A108</f>
         <v>D2D</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C108" t="str">
@@ -30973,7 +30971,7 @@
         <f>period_stock_list!A109</f>
         <v>DAG</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C109" t="str">
@@ -30998,8 +30996,8 @@
         <f>period_stock_list!A110</f>
         <v>DAH</v>
       </c>
-      <c r="B110" t="s">
-        <v>1761</v>
+      <c r="B110" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C110" t="str">
         <f>VLOOKUP(A110,full_stock_list!$A:$B,2,0)</f>
@@ -31023,8 +31021,8 @@
         <f>period_stock_list!A111</f>
         <v>DBC</v>
       </c>
-      <c r="B111" t="s">
-        <v>1760</v>
+      <c r="B111" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C111" t="str">
         <f>VLOOKUP(A111,full_stock_list!$A:$B,2,0)</f>
@@ -31048,7 +31046,7 @@
         <f>period_stock_list!A112</f>
         <v>DBD</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C112" t="str">
@@ -31073,8 +31071,8 @@
         <f>period_stock_list!A113</f>
         <v>DBT</v>
       </c>
-      <c r="B113" t="s">
-        <v>1761</v>
+      <c r="B113" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C113" t="str">
         <f>VLOOKUP(A113,full_stock_list!$A:$B,2,0)</f>
@@ -31098,7 +31096,7 @@
         <f>period_stock_list!A114</f>
         <v>DC4</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C114" t="str">
@@ -31123,8 +31121,8 @@
         <f>period_stock_list!A115</f>
         <v>DCL</v>
       </c>
-      <c r="B115" t="s">
-        <v>1761</v>
+      <c r="B115" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C115" t="str">
         <f>VLOOKUP(A115,full_stock_list!$A:$B,2,0)</f>
@@ -31148,7 +31146,7 @@
         <f>period_stock_list!A116</f>
         <v>DCM</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C116" t="str">
@@ -31173,8 +31171,8 @@
         <f>period_stock_list!A117</f>
         <v>DCS</v>
       </c>
-      <c r="B117" t="s">
-        <v>1759</v>
+      <c r="B117" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C117" t="str">
         <f>VLOOKUP(A117,full_stock_list!$A:$B,2,0)</f>
@@ -31198,8 +31196,8 @@
         <f>period_stock_list!A118</f>
         <v>DDG</v>
       </c>
-      <c r="B118" t="s">
-        <v>1759</v>
+      <c r="B118" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C118" t="str">
         <f>VLOOKUP(A118,full_stock_list!$A:$B,2,0)</f>
@@ -31223,8 +31221,8 @@
         <f>period_stock_list!A119</f>
         <v>DDN</v>
       </c>
-      <c r="B119" t="s">
-        <v>1759</v>
+      <c r="B119" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C119" t="str">
         <f>VLOOKUP(A119,full_stock_list!$A:$B,2,0)</f>
@@ -31248,8 +31246,8 @@
         <f>period_stock_list!A120</f>
         <v>DDV</v>
       </c>
-      <c r="B120" t="s">
-        <v>1759</v>
+      <c r="B120" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C120" t="str">
         <f>VLOOKUP(A120,full_stock_list!$A:$B,2,0)</f>
@@ -31273,7 +31271,7 @@
         <f>period_stock_list!A121</f>
         <v>DGC</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C121" t="str">
@@ -31298,7 +31296,7 @@
         <f>period_stock_list!A122</f>
         <v>DGT</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C122" t="str">
@@ -31323,8 +31321,8 @@
         <f>period_stock_list!A123</f>
         <v>DGW</v>
       </c>
-      <c r="B123" t="s">
-        <v>1760</v>
+      <c r="B123" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C123" t="str">
         <f>VLOOKUP(A123,full_stock_list!$A:$B,2,0)</f>
@@ -31348,8 +31346,8 @@
         <f>period_stock_list!A124</f>
         <v>DHA</v>
       </c>
-      <c r="B124" t="s">
-        <v>1761</v>
+      <c r="B124" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C124" t="str">
         <f>VLOOKUP(A124,full_stock_list!$A:$B,2,0)</f>
@@ -31373,7 +31371,7 @@
         <f>period_stock_list!A125</f>
         <v>DHC</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C125" t="str">
@@ -31398,8 +31396,8 @@
         <f>period_stock_list!A126</f>
         <v>DHG</v>
       </c>
-      <c r="B126" t="s">
-        <v>1761</v>
+      <c r="B126" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C126" t="str">
         <f>VLOOKUP(A126,full_stock_list!$A:$B,2,0)</f>
@@ -31423,8 +31421,8 @@
         <f>period_stock_list!A127</f>
         <v>DHM</v>
       </c>
-      <c r="B127" t="s">
-        <v>1760</v>
+      <c r="B127" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C127" t="str">
         <f>VLOOKUP(A127,full_stock_list!$A:$B,2,0)</f>
@@ -31448,8 +31446,8 @@
         <f>period_stock_list!A128</f>
         <v>DHT</v>
       </c>
-      <c r="B128" t="s">
-        <v>1760</v>
+      <c r="B128" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C128" t="str">
         <f>VLOOKUP(A128,full_stock_list!$A:$B,2,0)</f>
@@ -31473,8 +31471,8 @@
         <f>period_stock_list!A129</f>
         <v>DIC</v>
       </c>
-      <c r="B129" t="s">
-        <v>1761</v>
+      <c r="B129" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C129" t="str">
         <f>VLOOKUP(A129,full_stock_list!$A:$B,2,0)</f>
@@ -31498,8 +31496,8 @@
         <f>period_stock_list!A130</f>
         <v>DID</v>
       </c>
-      <c r="B130" t="s">
-        <v>1761</v>
+      <c r="B130" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C130" t="str">
         <f>VLOOKUP(A130,full_stock_list!$A:$B,2,0)</f>
@@ -31523,8 +31521,8 @@
         <f>period_stock_list!A131</f>
         <v>DIG</v>
       </c>
-      <c r="B131" t="s">
-        <v>1760</v>
+      <c r="B131" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C131" t="str">
         <f>VLOOKUP(A131,full_stock_list!$A:$B,2,0)</f>
@@ -31548,8 +31546,8 @@
         <f>period_stock_list!A132</f>
         <v>DL1</v>
       </c>
-      <c r="B132" t="s">
-        <v>1759</v>
+      <c r="B132" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C132" t="str">
         <f>VLOOKUP(A132,full_stock_list!$A:$B,2,0)</f>
@@ -31573,8 +31571,8 @@
         <f>period_stock_list!A133</f>
         <v>DLG</v>
       </c>
-      <c r="B133" t="s">
-        <v>1761</v>
+      <c r="B133" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C133" t="str">
         <f>VLOOKUP(A133,full_stock_list!$A:$B,2,0)</f>
@@ -31598,7 +31596,7 @@
         <f>period_stock_list!A134</f>
         <v>DMC</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C134" t="str">
@@ -31623,8 +31621,8 @@
         <f>period_stock_list!A135</f>
         <v>DNM</v>
       </c>
-      <c r="B135" t="s">
-        <v>1759</v>
+      <c r="B135" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C135" t="str">
         <f>VLOOKUP(A135,full_stock_list!$A:$B,2,0)</f>
@@ -31648,8 +31646,8 @@
         <f>period_stock_list!A136</f>
         <v>DPG</v>
       </c>
-      <c r="B136" t="s">
-        <v>1760</v>
+      <c r="B136" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C136" t="str">
         <f>VLOOKUP(A136,full_stock_list!$A:$B,2,0)</f>
@@ -31673,7 +31671,7 @@
         <f>period_stock_list!A137</f>
         <v>DPM</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C137" t="str">
@@ -31698,7 +31696,7 @@
         <f>period_stock_list!A138</f>
         <v>DPR</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C138" t="str">
@@ -31723,8 +31721,8 @@
         <f>period_stock_list!A139</f>
         <v>DPS</v>
       </c>
-      <c r="B139" t="s">
-        <v>1759</v>
+      <c r="B139" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C139" t="str">
         <f>VLOOKUP(A139,full_stock_list!$A:$B,2,0)</f>
@@ -31748,7 +31746,7 @@
         <f>period_stock_list!A140</f>
         <v>DQC</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C140" t="str">
@@ -31773,8 +31771,8 @@
         <f>period_stock_list!A141</f>
         <v>DRC</v>
       </c>
-      <c r="B141" t="s">
-        <v>1761</v>
+      <c r="B141" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C141" t="str">
         <f>VLOOKUP(A141,full_stock_list!$A:$B,2,0)</f>
@@ -31798,7 +31796,7 @@
         <f>period_stock_list!A142</f>
         <v>DRH</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C142" t="str">
@@ -31823,8 +31821,8 @@
         <f>period_stock_list!A143</f>
         <v>DRI</v>
       </c>
-      <c r="B143" t="s">
-        <v>1759</v>
+      <c r="B143" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C143" t="str">
         <f>VLOOKUP(A143,full_stock_list!$A:$B,2,0)</f>
@@ -31848,7 +31846,7 @@
         <f>period_stock_list!A144</f>
         <v>DS3</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C144" t="str">
@@ -31873,8 +31871,8 @@
         <f>period_stock_list!A145</f>
         <v>DSC</v>
       </c>
-      <c r="B145" t="s">
-        <v>1759</v>
+      <c r="B145" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C145" t="str">
         <f>VLOOKUP(A145,full_stock_list!$A:$B,2,0)</f>
@@ -31898,8 +31896,8 @@
         <f>period_stock_list!A146</f>
         <v>DST</v>
       </c>
-      <c r="B146" t="s">
-        <v>1759</v>
+      <c r="B146" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C146" t="str">
         <f>VLOOKUP(A146,full_stock_list!$A:$B,2,0)</f>
@@ -31923,7 +31921,7 @@
         <f>period_stock_list!A147</f>
         <v>DTA</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C147" t="str">
@@ -31948,8 +31946,8 @@
         <f>period_stock_list!A148</f>
         <v>DTD</v>
       </c>
-      <c r="B148" t="s">
-        <v>1759</v>
+      <c r="B148" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C148" t="str">
         <f>VLOOKUP(A148,full_stock_list!$A:$B,2,0)</f>
@@ -31973,8 +31971,8 @@
         <f>period_stock_list!A149</f>
         <v>DTE</v>
       </c>
-      <c r="B149" t="s">
-        <v>1759</v>
+      <c r="B149" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C149" t="str">
         <f>VLOOKUP(A149,full_stock_list!$A:$B,2,0)</f>
@@ -31998,7 +31996,7 @@
         <f>period_stock_list!A150</f>
         <v>DTI</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C150" t="str">
@@ -32023,8 +32021,8 @@
         <f>period_stock_list!A151</f>
         <v>DVG</v>
       </c>
-      <c r="B151" t="s">
-        <v>1759</v>
+      <c r="B151" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C151" t="str">
         <f>VLOOKUP(A151,full_stock_list!$A:$B,2,0)</f>
@@ -32048,8 +32046,8 @@
         <f>period_stock_list!A152</f>
         <v>DVM</v>
       </c>
-      <c r="B152" t="s">
-        <v>1760</v>
+      <c r="B152" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C152" t="str">
         <f>VLOOKUP(A152,full_stock_list!$A:$B,2,0)</f>
@@ -32073,8 +32071,8 @@
         <f>period_stock_list!A153</f>
         <v>DVN</v>
       </c>
-      <c r="B153" t="s">
-        <v>1759</v>
+      <c r="B153" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C153" t="str">
         <f>VLOOKUP(A153,full_stock_list!$A:$B,2,0)</f>
@@ -32098,8 +32096,8 @@
         <f>period_stock_list!A154</f>
         <v>DVP</v>
       </c>
-      <c r="B154" t="s">
-        <v>1760</v>
+      <c r="B154" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C154" t="str">
         <f>VLOOKUP(A154,full_stock_list!$A:$B,2,0)</f>
@@ -32123,7 +32121,7 @@
         <f>period_stock_list!A155</f>
         <v>DXG</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C155" t="str">
@@ -32148,8 +32146,8 @@
         <f>period_stock_list!A156</f>
         <v>DXP</v>
       </c>
-      <c r="B156" t="s">
-        <v>1760</v>
+      <c r="B156" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C156" t="str">
         <f>VLOOKUP(A156,full_stock_list!$A:$B,2,0)</f>
@@ -32173,7 +32171,7 @@
         <f>period_stock_list!A157</f>
         <v>DXS</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C157" t="str">
@@ -32198,7 +32196,7 @@
         <f>period_stock_list!A158</f>
         <v>DXV</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C158" t="str">
@@ -32223,8 +32221,8 @@
         <f>period_stock_list!A159</f>
         <v>DZM</v>
       </c>
-      <c r="B159" t="s">
-        <v>1759</v>
+      <c r="B159" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C159" t="str">
         <f>VLOOKUP(A159,full_stock_list!$A:$B,2,0)</f>
@@ -32248,8 +32246,8 @@
         <f>period_stock_list!A160</f>
         <v>EIB</v>
       </c>
-      <c r="B160" t="s">
-        <v>1761</v>
+      <c r="B160" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C160" t="str">
         <f>VLOOKUP(A160,full_stock_list!$A:$B,2,0)</f>
@@ -32273,8 +32271,8 @@
         <f>period_stock_list!A161</f>
         <v>EIN</v>
       </c>
-      <c r="B161" t="s">
-        <v>1759</v>
+      <c r="B161" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C161" t="str">
         <f>VLOOKUP(A161,full_stock_list!$A:$B,2,0)</f>
@@ -32298,7 +32296,7 @@
         <f>period_stock_list!A162</f>
         <v>ELC</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C162" t="str">
@@ -32323,7 +32321,7 @@
         <f>period_stock_list!A163</f>
         <v>EVE</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C163" t="str">
@@ -32348,7 +32346,7 @@
         <f>period_stock_list!A164</f>
         <v>EVF</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C164" t="str">
@@ -32373,7 +32371,7 @@
         <f>period_stock_list!A165</f>
         <v>EVG</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C165" t="str">
@@ -32398,8 +32396,8 @@
         <f>period_stock_list!A166</f>
         <v>EVS</v>
       </c>
-      <c r="B166" t="s">
-        <v>1759</v>
+      <c r="B166" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C166" t="str">
         <f>VLOOKUP(A166,full_stock_list!$A:$B,2,0)</f>
@@ -32423,7 +32421,7 @@
         <f>period_stock_list!A167</f>
         <v>FCM</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C167" t="str">
@@ -32448,7 +32446,7 @@
         <f>period_stock_list!A168</f>
         <v>FCN</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C168" t="str">
@@ -32473,8 +32471,8 @@
         <f>period_stock_list!A169</f>
         <v>FID</v>
       </c>
-      <c r="B169" t="s">
-        <v>1759</v>
+      <c r="B169" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C169" t="str">
         <f>VLOOKUP(A169,full_stock_list!$A:$B,2,0)</f>
@@ -32498,7 +32496,7 @@
         <f>period_stock_list!A170</f>
         <v>FIR</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C170" t="str">
@@ -32523,8 +32521,8 @@
         <f>period_stock_list!A171</f>
         <v>FIT</v>
       </c>
-      <c r="B171" t="s">
-        <v>1761</v>
+      <c r="B171" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C171" t="str">
         <f>VLOOKUP(A171,full_stock_list!$A:$B,2,0)</f>
@@ -32548,8 +32546,8 @@
         <f>period_stock_list!A172</f>
         <v>FLC</v>
       </c>
-      <c r="B172" t="s">
-        <v>1759</v>
+      <c r="B172" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C172" t="str">
         <f>VLOOKUP(A172,full_stock_list!$A:$B,2,0)</f>
@@ -32573,7 +32571,7 @@
         <f>period_stock_list!A173</f>
         <v>FMC</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C173" t="str">
@@ -32598,7 +32596,7 @@
         <f>period_stock_list!A174</f>
         <v>FOX</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C174" t="str">
@@ -32623,8 +32621,8 @@
         <f>period_stock_list!A175</f>
         <v>FPT</v>
       </c>
-      <c r="B175" t="s">
-        <v>1761</v>
+      <c r="B175" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C175" t="str">
         <f>VLOOKUP(A175,full_stock_list!$A:$B,2,0)</f>
@@ -32648,7 +32646,7 @@
         <f>period_stock_list!A176</f>
         <v>FRT</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C176" t="str">
@@ -32673,8 +32671,8 @@
         <f>period_stock_list!A177</f>
         <v>FTM</v>
       </c>
-      <c r="B177" t="s">
-        <v>1759</v>
+      <c r="B177" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C177" t="str">
         <f>VLOOKUP(A177,full_stock_list!$A:$B,2,0)</f>
@@ -32698,7 +32696,7 @@
         <f>period_stock_list!A178</f>
         <v>FTS</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C178" t="str">
@@ -32723,7 +32721,7 @@
         <f>period_stock_list!A179</f>
         <v>G36</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C179" t="str">
@@ -32748,8 +32746,8 @@
         <f>period_stock_list!A180</f>
         <v>GAB</v>
       </c>
-      <c r="B180" t="s">
-        <v>1759</v>
+      <c r="B180" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C180" t="str">
         <f>VLOOKUP(A180,full_stock_list!$A:$B,2,0)</f>
@@ -32773,7 +32771,7 @@
         <f>period_stock_list!A181</f>
         <v>GAS</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C181" t="str">
@@ -32798,8 +32796,8 @@
         <f>period_stock_list!A182</f>
         <v>GDA</v>
       </c>
-      <c r="B182" t="s">
-        <v>1759</v>
+      <c r="B182" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C182" t="str">
         <f>VLOOKUP(A182,full_stock_list!$A:$B,2,0)</f>
@@ -32823,7 +32821,7 @@
         <f>period_stock_list!A183</f>
         <v>GDT</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C183" t="str">
@@ -32848,8 +32846,8 @@
         <f>period_stock_list!A184</f>
         <v>GEE</v>
       </c>
-      <c r="B184" t="s">
-        <v>1759</v>
+      <c r="B184" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C184" t="str">
         <f>VLOOKUP(A184,full_stock_list!$A:$B,2,0)</f>
@@ -32873,8 +32871,8 @@
         <f>period_stock_list!A185</f>
         <v>GEG</v>
       </c>
-      <c r="B185" t="s">
-        <v>1761</v>
+      <c r="B185" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C185" t="str">
         <f>VLOOKUP(A185,full_stock_list!$A:$B,2,0)</f>
@@ -32898,7 +32896,7 @@
         <f>period_stock_list!A186</f>
         <v>GEX</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C186" t="str">
@@ -32923,7 +32921,7 @@
         <f>period_stock_list!A187</f>
         <v>GHC</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C187" t="str">
@@ -32948,8 +32946,8 @@
         <f>period_stock_list!A188</f>
         <v>GIC</v>
       </c>
-      <c r="B188" t="s">
-        <v>1759</v>
+      <c r="B188" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C188" t="str">
         <f>VLOOKUP(A188,full_stock_list!$A:$B,2,0)</f>
@@ -32973,8 +32971,8 @@
         <f>period_stock_list!A189</f>
         <v>GIL</v>
       </c>
-      <c r="B189" t="s">
-        <v>1761</v>
+      <c r="B189" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C189" t="str">
         <f>VLOOKUP(A189,full_stock_list!$A:$B,2,0)</f>
@@ -32998,8 +32996,8 @@
         <f>period_stock_list!A190</f>
         <v>GKM</v>
       </c>
-      <c r="B190" t="s">
-        <v>1759</v>
+      <c r="B190" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C190" t="str">
         <f>VLOOKUP(A190,full_stock_list!$A:$B,2,0)</f>
@@ -33023,8 +33021,8 @@
         <f>period_stock_list!A191</f>
         <v>GMA</v>
       </c>
-      <c r="B191" t="s">
-        <v>1759</v>
+      <c r="B191" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C191" t="str">
         <f>VLOOKUP(A191,full_stock_list!$A:$B,2,0)</f>
@@ -33048,7 +33046,7 @@
         <f>period_stock_list!A192</f>
         <v>GMC</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C192" t="str">
@@ -33073,7 +33071,7 @@
         <f>period_stock_list!A193</f>
         <v>GMD</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C193" t="str">
@@ -33098,7 +33096,7 @@
         <f>period_stock_list!A194</f>
         <v>GMH</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C194" t="str">
@@ -33123,8 +33121,8 @@
         <f>period_stock_list!A195</f>
         <v>GSP</v>
       </c>
-      <c r="B195" t="s">
-        <v>1760</v>
+      <c r="B195" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C195" t="str">
         <f>VLOOKUP(A195,full_stock_list!$A:$B,2,0)</f>
@@ -33148,8 +33146,8 @@
         <f>period_stock_list!A196</f>
         <v>GTT</v>
       </c>
-      <c r="B196" t="s">
-        <v>1759</v>
+      <c r="B196" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C196" t="str">
         <f>VLOOKUP(A196,full_stock_list!$A:$B,2,0)</f>
@@ -33173,8 +33171,8 @@
         <f>period_stock_list!A197</f>
         <v>GVR</v>
       </c>
-      <c r="B197" t="s">
-        <v>1760</v>
+      <c r="B197" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C197" t="str">
         <f>VLOOKUP(A197,full_stock_list!$A:$B,2,0)</f>
@@ -33198,8 +33196,8 @@
         <f>period_stock_list!A198</f>
         <v>HAC</v>
       </c>
-      <c r="B198" t="s">
-        <v>1759</v>
+      <c r="B198" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C198" t="str">
         <f>VLOOKUP(A198,full_stock_list!$A:$B,2,0)</f>
@@ -33223,8 +33221,8 @@
         <f>period_stock_list!A199</f>
         <v>HAG</v>
       </c>
-      <c r="B199" t="s">
-        <v>1761</v>
+      <c r="B199" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C199" t="str">
         <f>VLOOKUP(A199,full_stock_list!$A:$B,2,0)</f>
@@ -33248,8 +33246,8 @@
         <f>period_stock_list!A200</f>
         <v>HAH</v>
       </c>
-      <c r="B200" t="s">
-        <v>1760</v>
+      <c r="B200" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C200" t="str">
         <f>VLOOKUP(A200,full_stock_list!$A:$B,2,0)</f>
@@ -33273,8 +33271,8 @@
         <f>period_stock_list!A201</f>
         <v>HAI</v>
       </c>
-      <c r="B201" t="s">
-        <v>1759</v>
+      <c r="B201" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C201" t="str">
         <f>VLOOKUP(A201,full_stock_list!$A:$B,2,0)</f>
@@ -33298,8 +33296,8 @@
         <f>period_stock_list!A202</f>
         <v>HAP</v>
       </c>
-      <c r="B202" t="s">
-        <v>1761</v>
+      <c r="B202" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C202" t="str">
         <f>VLOOKUP(A202,full_stock_list!$A:$B,2,0)</f>
@@ -33323,7 +33321,7 @@
         <f>period_stock_list!A203</f>
         <v>HAR</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C203" t="str">
@@ -33348,7 +33346,7 @@
         <f>period_stock_list!A204</f>
         <v>HAX</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C204" t="str">
@@ -33373,7 +33371,7 @@
         <f>period_stock_list!A205</f>
         <v>HBC</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C205" t="str">
@@ -33398,8 +33396,8 @@
         <f>period_stock_list!A206</f>
         <v>HBS</v>
       </c>
-      <c r="B206" t="s">
-        <v>1759</v>
+      <c r="B206" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C206" t="str">
         <f>VLOOKUP(A206,full_stock_list!$A:$B,2,0)</f>
@@ -33423,8 +33421,8 @@
         <f>period_stock_list!A207</f>
         <v>HCD</v>
       </c>
-      <c r="B207" t="s">
-        <v>1761</v>
+      <c r="B207" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C207" t="str">
         <f>VLOOKUP(A207,full_stock_list!$A:$B,2,0)</f>
@@ -33448,7 +33446,7 @@
         <f>period_stock_list!A208</f>
         <v>HCM</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C208" t="str">
@@ -33473,8 +33471,8 @@
         <f>period_stock_list!A209</f>
         <v>HD6</v>
       </c>
-      <c r="B209" t="s">
-        <v>1761</v>
+      <c r="B209" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C209" t="str">
         <f>VLOOKUP(A209,full_stock_list!$A:$B,2,0)</f>
@@ -33498,8 +33496,8 @@
         <f>period_stock_list!A210</f>
         <v>HDA</v>
       </c>
-      <c r="B210" t="s">
-        <v>1759</v>
+      <c r="B210" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C210" t="str">
         <f>VLOOKUP(A210,full_stock_list!$A:$B,2,0)</f>
@@ -33523,8 +33521,8 @@
         <f>period_stock_list!A211</f>
         <v>HDB</v>
       </c>
-      <c r="B211" t="s">
-        <v>1761</v>
+      <c r="B211" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C211" t="str">
         <f>VLOOKUP(A211,full_stock_list!$A:$B,2,0)</f>
@@ -33548,7 +33546,7 @@
         <f>period_stock_list!A212</f>
         <v>HDC</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C212" t="str">
@@ -33573,7 +33571,7 @@
         <f>period_stock_list!A213</f>
         <v>HDG</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C213" t="str">
@@ -33598,8 +33596,8 @@
         <f>period_stock_list!A214</f>
         <v>HHG</v>
       </c>
-      <c r="B214" t="s">
-        <v>1759</v>
+      <c r="B214" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C214" t="str">
         <f>VLOOKUP(A214,full_stock_list!$A:$B,2,0)</f>
@@ -33623,8 +33621,8 @@
         <f>period_stock_list!A215</f>
         <v>HHP</v>
       </c>
-      <c r="B215" t="s">
-        <v>1761</v>
+      <c r="B215" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C215" t="str">
         <f>VLOOKUP(A215,full_stock_list!$A:$B,2,0)</f>
@@ -33648,8 +33646,8 @@
         <f>period_stock_list!A216</f>
         <v>HHS</v>
       </c>
-      <c r="B216" t="s">
-        <v>1761</v>
+      <c r="B216" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C216" t="str">
         <f>VLOOKUP(A216,full_stock_list!$A:$B,2,0)</f>
@@ -33673,7 +33671,7 @@
         <f>period_stock_list!A217</f>
         <v>HHV</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C217" t="str">
@@ -33698,7 +33696,7 @@
         <f>period_stock_list!A218</f>
         <v>HID</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C218" t="str">
@@ -33723,8 +33721,8 @@
         <f>period_stock_list!A219</f>
         <v>HIG</v>
       </c>
-      <c r="B219" t="s">
-        <v>1759</v>
+      <c r="B219" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C219" t="str">
         <f>VLOOKUP(A219,full_stock_list!$A:$B,2,0)</f>
@@ -33748,7 +33746,7 @@
         <f>period_stock_list!A220</f>
         <v>HII</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C220" t="str">
@@ -33773,8 +33771,8 @@
         <f>period_stock_list!A221</f>
         <v>HIO</v>
       </c>
-      <c r="B221" t="s">
-        <v>1761</v>
+      <c r="B221" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C221" t="str">
         <f>VLOOKUP(A221,full_stock_list!$A:$B,2,0)</f>
@@ -33798,8 +33796,8 @@
         <f>period_stock_list!A222</f>
         <v>HKB</v>
       </c>
-      <c r="B222" t="s">
-        <v>1759</v>
+      <c r="B222" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C222" t="str">
         <f>VLOOKUP(A222,full_stock_list!$A:$B,2,0)</f>
@@ -33823,8 +33821,8 @@
         <f>period_stock_list!A223</f>
         <v>HLD</v>
       </c>
-      <c r="B223" t="s">
-        <v>1759</v>
+      <c r="B223" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C223" t="str">
         <f>VLOOKUP(A223,full_stock_list!$A:$B,2,0)</f>
@@ -33848,8 +33846,8 @@
         <f>period_stock_list!A224</f>
         <v>HMC</v>
       </c>
-      <c r="B224" t="s">
-        <v>1760</v>
+      <c r="B224" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C224" t="str">
         <f>VLOOKUP(A224,full_stock_list!$A:$B,2,0)</f>
@@ -33873,8 +33871,8 @@
         <f>period_stock_list!A225</f>
         <v>HMR</v>
       </c>
-      <c r="B225" t="s">
-        <v>1759</v>
+      <c r="B225" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C225" t="str">
         <f>VLOOKUP(A225,full_stock_list!$A:$B,2,0)</f>
@@ -33898,8 +33896,8 @@
         <f>period_stock_list!A226</f>
         <v>HND</v>
       </c>
-      <c r="B226" t="s">
-        <v>1759</v>
+      <c r="B226" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C226" t="str">
         <f>VLOOKUP(A226,full_stock_list!$A:$B,2,0)</f>
@@ -33923,7 +33921,7 @@
         <f>period_stock_list!A227</f>
         <v>HNG</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C227" t="str">
@@ -33948,8 +33946,8 @@
         <f>period_stock_list!A228</f>
         <v>HNM</v>
       </c>
-      <c r="B228" t="s">
-        <v>1759</v>
+      <c r="B228" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C228" t="str">
         <f>VLOOKUP(A228,full_stock_list!$A:$B,2,0)</f>
@@ -33973,7 +33971,7 @@
         <f>period_stock_list!A229</f>
         <v>HOM</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C229" t="str">
@@ -33998,8 +33996,8 @@
         <f>period_stock_list!A230</f>
         <v>HPG</v>
       </c>
-      <c r="B230" t="s">
-        <v>1761</v>
+      <c r="B230" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C230" t="str">
         <f>VLOOKUP(A230,full_stock_list!$A:$B,2,0)</f>
@@ -34023,8 +34021,8 @@
         <f>period_stock_list!A231</f>
         <v>HPX</v>
       </c>
-      <c r="B231" t="s">
-        <v>1760</v>
+      <c r="B231" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C231" t="str">
         <f>VLOOKUP(A231,full_stock_list!$A:$B,2,0)</f>
@@ -34048,8 +34046,8 @@
         <f>period_stock_list!A232</f>
         <v>HQC</v>
       </c>
-      <c r="B232" t="s">
-        <v>1761</v>
+      <c r="B232" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C232" t="str">
         <f>VLOOKUP(A232,full_stock_list!$A:$B,2,0)</f>
@@ -34073,8 +34071,8 @@
         <f>period_stock_list!A233</f>
         <v>HRT</v>
       </c>
-      <c r="B233" t="s">
-        <v>1761</v>
+      <c r="B233" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C233" t="str">
         <f>VLOOKUP(A233,full_stock_list!$A:$B,2,0)</f>
@@ -34098,8 +34096,8 @@
         <f>period_stock_list!A234</f>
         <v>HSG</v>
       </c>
-      <c r="B234" t="s">
-        <v>1761</v>
+      <c r="B234" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C234" t="str">
         <f>VLOOKUP(A234,full_stock_list!$A:$B,2,0)</f>
@@ -34123,7 +34121,7 @@
         <f>period_stock_list!A235</f>
         <v>HSL</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C235" t="str">
@@ -34148,7 +34146,7 @@
         <f>period_stock_list!A236</f>
         <v>HSV</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C236" t="str">
@@ -34173,7 +34171,7 @@
         <f>period_stock_list!A237</f>
         <v>HT1</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C237" t="str">
@@ -34198,8 +34196,8 @@
         <f>period_stock_list!A238</f>
         <v>HTG</v>
       </c>
-      <c r="B238" t="s">
-        <v>1761</v>
+      <c r="B238" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C238" t="str">
         <f>VLOOKUP(A238,full_stock_list!$A:$B,2,0)</f>
@@ -34223,7 +34221,7 @@
         <f>period_stock_list!A239</f>
         <v>HTI</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C239" t="str">
@@ -34248,7 +34246,7 @@
         <f>period_stock_list!A240</f>
         <v>HTN</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C240" t="str">
@@ -34273,7 +34271,7 @@
         <f>period_stock_list!A241</f>
         <v>HTP</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C241" t="str">
@@ -34298,7 +34296,7 @@
         <f>period_stock_list!A242</f>
         <v>HTT</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C242" t="str">
@@ -34323,8 +34321,8 @@
         <f>period_stock_list!A243</f>
         <v>HU4</v>
       </c>
-      <c r="B243" t="s">
-        <v>1759</v>
+      <c r="B243" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C243" t="str">
         <f>VLOOKUP(A243,full_stock_list!$A:$B,2,0)</f>
@@ -34348,8 +34346,8 @@
         <f>period_stock_list!A244</f>
         <v>HUB</v>
       </c>
-      <c r="B244" t="s">
-        <v>1760</v>
+      <c r="B244" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C244" t="str">
         <f>VLOOKUP(A244,full_stock_list!$A:$B,2,0)</f>
@@ -34373,8 +34371,8 @@
         <f>period_stock_list!A245</f>
         <v>HUT</v>
       </c>
-      <c r="B245" t="s">
-        <v>1759</v>
+      <c r="B245" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C245" t="str">
         <f>VLOOKUP(A245,full_stock_list!$A:$B,2,0)</f>
@@ -34398,7 +34396,7 @@
         <f>period_stock_list!A246</f>
         <v>HVG</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C246" t="str">
@@ -34423,8 +34421,8 @@
         <f>period_stock_list!A247</f>
         <v>HVH</v>
       </c>
-      <c r="B247" t="s">
-        <v>1761</v>
+      <c r="B247" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C247" t="str">
         <f>VLOOKUP(A247,full_stock_list!$A:$B,2,0)</f>
@@ -34448,7 +34446,7 @@
         <f>period_stock_list!A248</f>
         <v>HVN</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C248" t="str">
@@ -34473,8 +34471,8 @@
         <f>period_stock_list!A249</f>
         <v>HVX</v>
       </c>
-      <c r="B249" t="s">
-        <v>1761</v>
+      <c r="B249" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C249" t="str">
         <f>VLOOKUP(A249,full_stock_list!$A:$B,2,0)</f>
@@ -34498,8 +34496,8 @@
         <f>period_stock_list!A250</f>
         <v>IBC</v>
       </c>
-      <c r="B250" t="s">
-        <v>1761</v>
+      <c r="B250" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C250" t="str">
         <f>VLOOKUP(A250,full_stock_list!$A:$B,2,0)</f>
@@ -34523,8 +34521,8 @@
         <f>period_stock_list!A251</f>
         <v>ICT</v>
       </c>
-      <c r="B251" t="s">
-        <v>1760</v>
+      <c r="B251" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C251" t="str">
         <f>VLOOKUP(A251,full_stock_list!$A:$B,2,0)</f>
@@ -34548,8 +34546,8 @@
         <f>period_stock_list!A252</f>
         <v>IDC</v>
       </c>
-      <c r="B252" t="s">
-        <v>1760</v>
+      <c r="B252" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C252" t="str">
         <f>VLOOKUP(A252,full_stock_list!$A:$B,2,0)</f>
@@ -34573,7 +34571,7 @@
         <f>period_stock_list!A253</f>
         <v>IDI</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C253" t="str">
@@ -34598,8 +34596,8 @@
         <f>period_stock_list!A254</f>
         <v>IDJ</v>
       </c>
-      <c r="B254" t="s">
-        <v>1759</v>
+      <c r="B254" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C254" t="str">
         <f>VLOOKUP(A254,full_stock_list!$A:$B,2,0)</f>
@@ -34623,8 +34621,8 @@
         <f>period_stock_list!A255</f>
         <v>IJC</v>
       </c>
-      <c r="B255" t="s">
-        <v>1760</v>
+      <c r="B255" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C255" t="str">
         <f>VLOOKUP(A255,full_stock_list!$A:$B,2,0)</f>
@@ -34648,8 +34646,8 @@
         <f>period_stock_list!A256</f>
         <v>ILA</v>
       </c>
-      <c r="B256" t="s">
-        <v>1759</v>
+      <c r="B256" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C256" t="str">
         <f>VLOOKUP(A256,full_stock_list!$A:$B,2,0)</f>
@@ -34673,7 +34671,7 @@
         <f>period_stock_list!A257</f>
         <v>ILB</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C257" t="str">
@@ -34698,7 +34696,7 @@
         <f>period_stock_list!A258</f>
         <v>IMP</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C258" t="str">
@@ -34723,8 +34721,8 @@
         <f>period_stock_list!A259</f>
         <v>IPA</v>
       </c>
-      <c r="B259" t="s">
-        <v>1760</v>
+      <c r="B259" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C259" t="str">
         <f>VLOOKUP(A259,full_stock_list!$A:$B,2,0)</f>
@@ -34748,8 +34746,8 @@
         <f>period_stock_list!A260</f>
         <v>ITA</v>
       </c>
-      <c r="B260" t="s">
-        <v>1761</v>
+      <c r="B260" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C260" t="str">
         <f>VLOOKUP(A260,full_stock_list!$A:$B,2,0)</f>
@@ -34773,8 +34771,8 @@
         <f>period_stock_list!A261</f>
         <v>ITC</v>
       </c>
-      <c r="B261" t="s">
-        <v>1760</v>
+      <c r="B261" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C261" t="str">
         <f>VLOOKUP(A261,full_stock_list!$A:$B,2,0)</f>
@@ -34798,7 +34796,7 @@
         <f>period_stock_list!A262</f>
         <v>ITD</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C262" t="str">
@@ -34823,8 +34821,8 @@
         <f>period_stock_list!A263</f>
         <v>ITQ</v>
       </c>
-      <c r="B263" t="s">
-        <v>1760</v>
+      <c r="B263" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C263" t="str">
         <f>VLOOKUP(A263,full_stock_list!$A:$B,2,0)</f>
@@ -34848,8 +34846,8 @@
         <f>period_stock_list!A264</f>
         <v>ITS</v>
       </c>
-      <c r="B264" t="s">
-        <v>1759</v>
+      <c r="B264" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C264" t="str">
         <f>VLOOKUP(A264,full_stock_list!$A:$B,2,0)</f>
@@ -34873,7 +34871,7 @@
         <f>period_stock_list!A265</f>
         <v>IVS</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C265" t="str">
@@ -34898,7 +34896,7 @@
         <f>period_stock_list!A266</f>
         <v>JVC</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C266" t="str">
@@ -34923,8 +34921,8 @@
         <f>period_stock_list!A267</f>
         <v>KBC</v>
       </c>
-      <c r="B267" t="s">
-        <v>1761</v>
+      <c r="B267" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C267" t="str">
         <f>VLOOKUP(A267,full_stock_list!$A:$B,2,0)</f>
@@ -34948,8 +34946,8 @@
         <f>period_stock_list!A268</f>
         <v>KDC</v>
       </c>
-      <c r="B268" t="s">
-        <v>1761</v>
+      <c r="B268" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C268" t="str">
         <f>VLOOKUP(A268,full_stock_list!$A:$B,2,0)</f>
@@ -34973,8 +34971,8 @@
         <f>period_stock_list!A269</f>
         <v>KDH</v>
       </c>
-      <c r="B269" t="s">
-        <v>1760</v>
+      <c r="B269" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C269" t="str">
         <f>VLOOKUP(A269,full_stock_list!$A:$B,2,0)</f>
@@ -34998,7 +34996,7 @@
         <f>period_stock_list!A270</f>
         <v>KDM</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C270" t="str">
@@ -35023,7 +35021,7 @@
         <f>period_stock_list!A271</f>
         <v>KGM</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C271" t="str">
@@ -35048,7 +35046,7 @@
         <f>period_stock_list!A272</f>
         <v>KHG</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C272" t="str">
@@ -35073,7 +35071,7 @@
         <f>period_stock_list!A273</f>
         <v>KHP</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C273" t="str">
@@ -35098,8 +35096,8 @@
         <f>period_stock_list!A274</f>
         <v>KKC</v>
       </c>
-      <c r="B274" t="s">
-        <v>1759</v>
+      <c r="B274" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C274" t="str">
         <f>VLOOKUP(A274,full_stock_list!$A:$B,2,0)</f>
@@ -35123,8 +35121,8 @@
         <f>period_stock_list!A275</f>
         <v>KLB</v>
       </c>
-      <c r="B275" t="s">
-        <v>1759</v>
+      <c r="B275" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C275" t="str">
         <f>VLOOKUP(A275,full_stock_list!$A:$B,2,0)</f>
@@ -35148,7 +35146,7 @@
         <f>period_stock_list!A276</f>
         <v>KLF</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C276" t="str">
@@ -35173,8 +35171,8 @@
         <f>period_stock_list!A277</f>
         <v>KMR</v>
       </c>
-      <c r="B277" t="s">
-        <v>1761</v>
+      <c r="B277" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C277" t="str">
         <f>VLOOKUP(A277,full_stock_list!$A:$B,2,0)</f>
@@ -35198,7 +35196,7 @@
         <f>period_stock_list!A278</f>
         <v>KOS</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C278" t="str">
@@ -35223,7 +35221,7 @@
         <f>period_stock_list!A279</f>
         <v>KPF</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C279" t="str">
@@ -35248,8 +35246,8 @@
         <f>period_stock_list!A280</f>
         <v>KSB</v>
       </c>
-      <c r="B280" t="s">
-        <v>1761</v>
+      <c r="B280" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C280" t="str">
         <f>VLOOKUP(A280,full_stock_list!$A:$B,2,0)</f>
@@ -35273,7 +35271,7 @@
         <f>period_stock_list!A281</f>
         <v>KSD</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C281" t="str">
@@ -35298,8 +35296,8 @@
         <f>period_stock_list!A282</f>
         <v>KSF</v>
       </c>
-      <c r="B282" t="s">
-        <v>1759</v>
+      <c r="B282" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C282" t="str">
         <f>VLOOKUP(A282,full_stock_list!$A:$B,2,0)</f>
@@ -35323,8 +35321,8 @@
         <f>period_stock_list!A283</f>
         <v>KSH</v>
       </c>
-      <c r="B283" t="s">
-        <v>1759</v>
+      <c r="B283" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C283" t="str">
         <f>VLOOKUP(A283,full_stock_list!$A:$B,2,0)</f>
@@ -35348,7 +35346,7 @@
         <f>period_stock_list!A284</f>
         <v>KSQ</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C284" t="str">
@@ -35373,7 +35371,7 @@
         <f>period_stock_list!A285</f>
         <v>KVC</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C285" t="str">
@@ -35398,8 +35396,8 @@
         <f>period_stock_list!A286</f>
         <v>L12</v>
       </c>
-      <c r="B286" t="s">
-        <v>1759</v>
+      <c r="B286" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C286" t="str">
         <f>VLOOKUP(A286,full_stock_list!$A:$B,2,0)</f>
@@ -35423,8 +35421,8 @@
         <f>period_stock_list!A287</f>
         <v>L14</v>
       </c>
-      <c r="B287" t="s">
-        <v>1760</v>
+      <c r="B287" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C287" t="str">
         <f>VLOOKUP(A287,full_stock_list!$A:$B,2,0)</f>
@@ -35448,8 +35446,8 @@
         <f>period_stock_list!A288</f>
         <v>L18</v>
       </c>
-      <c r="B288" t="s">
-        <v>1759</v>
+      <c r="B288" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C288" t="str">
         <f>VLOOKUP(A288,full_stock_list!$A:$B,2,0)</f>
@@ -35473,8 +35471,8 @@
         <f>period_stock_list!A289</f>
         <v>LAS</v>
       </c>
-      <c r="B289" t="s">
-        <v>1759</v>
+      <c r="B289" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C289" t="str">
         <f>VLOOKUP(A289,full_stock_list!$A:$B,2,0)</f>
@@ -35498,8 +35496,8 @@
         <f>period_stock_list!A290</f>
         <v>LCG</v>
       </c>
-      <c r="B290" t="s">
-        <v>1760</v>
+      <c r="B290" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C290" t="str">
         <f>VLOOKUP(A290,full_stock_list!$A:$B,2,0)</f>
@@ -35523,7 +35521,7 @@
         <f>period_stock_list!A291</f>
         <v>LCM</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C291" t="str">
@@ -35548,8 +35546,8 @@
         <f>period_stock_list!A292</f>
         <v>LCS</v>
       </c>
-      <c r="B292" t="s">
-        <v>1761</v>
+      <c r="B292" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C292" t="str">
         <f>VLOOKUP(A292,full_stock_list!$A:$B,2,0)</f>
@@ -35573,7 +35571,7 @@
         <f>period_stock_list!A293</f>
         <v>LDG</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C293" t="str">
@@ -35598,7 +35596,7 @@
         <f>period_stock_list!A294</f>
         <v>LDP</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C294" t="str">
@@ -35623,8 +35621,8 @@
         <f>period_stock_list!A295</f>
         <v>LGL</v>
       </c>
-      <c r="B295" t="s">
-        <v>1761</v>
+      <c r="B295" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C295" t="str">
         <f>VLOOKUP(A295,full_stock_list!$A:$B,2,0)</f>
@@ -35648,7 +35646,7 @@
         <f>period_stock_list!A296</f>
         <v>LHG</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C296" t="str">
@@ -35673,8 +35671,8 @@
         <f>period_stock_list!A297</f>
         <v>LIG</v>
       </c>
-      <c r="B297" t="s">
-        <v>1759</v>
+      <c r="B297" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C297" t="str">
         <f>VLOOKUP(A297,full_stock_list!$A:$B,2,0)</f>
@@ -35698,8 +35696,8 @@
         <f>period_stock_list!A298</f>
         <v>LIX</v>
       </c>
-      <c r="B298" t="s">
-        <v>1760</v>
+      <c r="B298" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C298" t="str">
         <f>VLOOKUP(A298,full_stock_list!$A:$B,2,0)</f>
@@ -35723,7 +35721,7 @@
         <f>period_stock_list!A299</f>
         <v>LMH</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C299" t="str">
@@ -35748,7 +35746,7 @@
         <f>period_stock_list!A300</f>
         <v>LPB</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C300" t="str">
@@ -35773,8 +35771,8 @@
         <f>period_stock_list!A301</f>
         <v>LPT</v>
       </c>
-      <c r="B301" t="s">
-        <v>1759</v>
+      <c r="B301" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C301" t="str">
         <f>VLOOKUP(A301,full_stock_list!$A:$B,2,0)</f>
@@ -35798,8 +35796,8 @@
         <f>period_stock_list!A302</f>
         <v>LSS</v>
       </c>
-      <c r="B302" t="s">
-        <v>1761</v>
+      <c r="B302" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C302" t="str">
         <f>VLOOKUP(A302,full_stock_list!$A:$B,2,0)</f>
@@ -35823,8 +35821,8 @@
         <f>period_stock_list!A303</f>
         <v>LTG</v>
       </c>
-      <c r="B303" t="s">
-        <v>1759</v>
+      <c r="B303" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C303" t="str">
         <f>VLOOKUP(A303,full_stock_list!$A:$B,2,0)</f>
@@ -35848,8 +35846,8 @@
         <f>period_stock_list!A304</f>
         <v>MAC</v>
       </c>
-      <c r="B304" t="s">
-        <v>1759</v>
+      <c r="B304" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C304" t="str">
         <f>VLOOKUP(A304,full_stock_list!$A:$B,2,0)</f>
@@ -35873,8 +35871,8 @@
         <f>period_stock_list!A305</f>
         <v>MBB</v>
       </c>
-      <c r="B305" t="s">
-        <v>1760</v>
+      <c r="B305" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C305" t="str">
         <f>VLOOKUP(A305,full_stock_list!$A:$B,2,0)</f>
@@ -35898,8 +35896,8 @@
         <f>period_stock_list!A306</f>
         <v>MBG</v>
       </c>
-      <c r="B306" t="s">
-        <v>1759</v>
+      <c r="B306" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C306" t="str">
         <f>VLOOKUP(A306,full_stock_list!$A:$B,2,0)</f>
@@ -35923,7 +35921,7 @@
         <f>period_stock_list!A307</f>
         <v>MBS</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C307" t="str">
@@ -35948,8 +35946,8 @@
         <f>period_stock_list!A308</f>
         <v>MCG</v>
       </c>
-      <c r="B308" t="s">
-        <v>1759</v>
+      <c r="B308" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C308" t="str">
         <f>VLOOKUP(A308,full_stock_list!$A:$B,2,0)</f>
@@ -35973,8 +35971,8 @@
         <f>period_stock_list!A309</f>
         <v>MCH</v>
       </c>
-      <c r="B309" t="s">
-        <v>1759</v>
+      <c r="B309" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C309" t="str">
         <f>VLOOKUP(A309,full_stock_list!$A:$B,2,0)</f>
@@ -35998,8 +35996,8 @@
         <f>period_stock_list!A310</f>
         <v>MCM</v>
       </c>
-      <c r="B310" t="s">
-        <v>1761</v>
+      <c r="B310" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C310" t="str">
         <f>VLOOKUP(A310,full_stock_list!$A:$B,2,0)</f>
@@ -36023,8 +36021,8 @@
         <f>period_stock_list!A311</f>
         <v>MCO</v>
       </c>
-      <c r="B311" t="s">
-        <v>1759</v>
+      <c r="B311" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C311" t="str">
         <f>VLOOKUP(A311,full_stock_list!$A:$B,2,0)</f>
@@ -36048,8 +36046,8 @@
         <f>period_stock_list!A312</f>
         <v>MFS</v>
       </c>
-      <c r="B312" t="s">
-        <v>1759</v>
+      <c r="B312" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C312" t="str">
         <f>VLOOKUP(A312,full_stock_list!$A:$B,2,0)</f>
@@ -36073,7 +36071,7 @@
         <f>period_stock_list!A313</f>
         <v>MHC</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C313" t="str">
@@ -36098,7 +36096,7 @@
         <f>period_stock_list!A314</f>
         <v>MIG</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C314" t="str">
@@ -36123,7 +36121,7 @@
         <f>period_stock_list!A315</f>
         <v>MLS</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C315" t="str">
@@ -36148,7 +36146,7 @@
         <f>period_stock_list!A316</f>
         <v>MPC</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C316" t="str">
@@ -36173,8 +36171,8 @@
         <f>period_stock_list!A317</f>
         <v>MPT</v>
       </c>
-      <c r="B317" t="s">
-        <v>1761</v>
+      <c r="B317" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C317" t="str">
         <f>VLOOKUP(A317,full_stock_list!$A:$B,2,0)</f>
@@ -36198,8 +36196,8 @@
         <f>period_stock_list!A318</f>
         <v>MSB</v>
       </c>
-      <c r="B318" t="s">
-        <v>1761</v>
+      <c r="B318" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C318" t="str">
         <f>VLOOKUP(A318,full_stock_list!$A:$B,2,0)</f>
@@ -36223,7 +36221,7 @@
         <f>period_stock_list!A319</f>
         <v>MSH</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C319" t="str">
@@ -36248,8 +36246,8 @@
         <f>period_stock_list!A320</f>
         <v>MSN</v>
       </c>
-      <c r="B320" t="s">
-        <v>1761</v>
+      <c r="B320" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C320" t="str">
         <f>VLOOKUP(A320,full_stock_list!$A:$B,2,0)</f>
@@ -36273,8 +36271,8 @@
         <f>period_stock_list!A321</f>
         <v>MSR</v>
       </c>
-      <c r="B321" t="s">
-        <v>1761</v>
+      <c r="B321" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C321" t="str">
         <f>VLOOKUP(A321,full_stock_list!$A:$B,2,0)</f>
@@ -36298,8 +36296,8 @@
         <f>period_stock_list!A322</f>
         <v>MST</v>
       </c>
-      <c r="B322" t="s">
-        <v>1759</v>
+      <c r="B322" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C322" t="str">
         <f>VLOOKUP(A322,full_stock_list!$A:$B,2,0)</f>
@@ -36323,8 +36321,8 @@
         <f>period_stock_list!A323</f>
         <v>MTA</v>
       </c>
-      <c r="B323" t="s">
-        <v>1759</v>
+      <c r="B323" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C323" t="str">
         <f>VLOOKUP(A323,full_stock_list!$A:$B,2,0)</f>
@@ -36348,7 +36346,7 @@
         <f>period_stock_list!A324</f>
         <v>MVC</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C324" t="str">
@@ -36373,8 +36371,8 @@
         <f>period_stock_list!A325</f>
         <v>MWG</v>
       </c>
-      <c r="B325" t="s">
-        <v>1761</v>
+      <c r="B325" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C325" t="str">
         <f>VLOOKUP(A325,full_stock_list!$A:$B,2,0)</f>
@@ -36398,8 +36396,8 @@
         <f>period_stock_list!A326</f>
         <v>NAB</v>
       </c>
-      <c r="B326" t="s">
-        <v>1761</v>
+      <c r="B326" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C326" t="str">
         <f>VLOOKUP(A326,full_stock_list!$A:$B,2,0)</f>
@@ -36423,8 +36421,8 @@
         <f>period_stock_list!A327</f>
         <v>NAF</v>
       </c>
-      <c r="B327" t="s">
-        <v>1761</v>
+      <c r="B327" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C327" t="str">
         <f>VLOOKUP(A327,full_stock_list!$A:$B,2,0)</f>
@@ -36448,8 +36446,8 @@
         <f>period_stock_list!A328</f>
         <v>NAG</v>
       </c>
-      <c r="B328" t="s">
-        <v>1759</v>
+      <c r="B328" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C328" t="str">
         <f>VLOOKUP(A328,full_stock_list!$A:$B,2,0)</f>
@@ -36473,8 +36471,8 @@
         <f>period_stock_list!A329</f>
         <v>NBB</v>
       </c>
-      <c r="B329" t="s">
-        <v>1761</v>
+      <c r="B329" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C329" t="str">
         <f>VLOOKUP(A329,full_stock_list!$A:$B,2,0)</f>
@@ -36498,7 +36496,7 @@
         <f>period_stock_list!A330</f>
         <v>NBC</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C330" t="str">
@@ -36523,7 +36521,7 @@
         <f>period_stock_list!A331</f>
         <v>NCG</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C331" t="str">
@@ -36548,8 +36546,8 @@
         <f>period_stock_list!A332</f>
         <v>NCT</v>
       </c>
-      <c r="B332" t="s">
-        <v>1760</v>
+      <c r="B332" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C332" t="str">
         <f>VLOOKUP(A332,full_stock_list!$A:$B,2,0)</f>
@@ -36573,8 +36571,8 @@
         <f>period_stock_list!A333</f>
         <v>NDN</v>
       </c>
-      <c r="B333" t="s">
-        <v>1760</v>
+      <c r="B333" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C333" t="str">
         <f>VLOOKUP(A333,full_stock_list!$A:$B,2,0)</f>
@@ -36598,8 +36596,8 @@
         <f>period_stock_list!A334</f>
         <v>NDT</v>
       </c>
-      <c r="B334" t="s">
-        <v>1759</v>
+      <c r="B334" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C334" t="str">
         <f>VLOOKUP(A334,full_stock_list!$A:$B,2,0)</f>
@@ -36623,7 +36621,7 @@
         <f>period_stock_list!A335</f>
         <v>NDX</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C335" t="str">
@@ -36648,8 +36646,8 @@
         <f>period_stock_list!A336</f>
         <v>NED</v>
       </c>
-      <c r="B336" t="s">
-        <v>1759</v>
+      <c r="B336" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C336" t="str">
         <f>VLOOKUP(A336,full_stock_list!$A:$B,2,0)</f>
@@ -36673,8 +36671,8 @@
         <f>period_stock_list!A337</f>
         <v>NHA</v>
       </c>
-      <c r="B337" t="s">
-        <v>1760</v>
+      <c r="B337" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C337" t="str">
         <f>VLOOKUP(A337,full_stock_list!$A:$B,2,0)</f>
@@ -36698,8 +36696,8 @@
         <f>period_stock_list!A338</f>
         <v>NHH</v>
       </c>
-      <c r="B338" t="s">
-        <v>1760</v>
+      <c r="B338" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C338" t="str">
         <f>VLOOKUP(A338,full_stock_list!$A:$B,2,0)</f>
@@ -36723,7 +36721,7 @@
         <f>period_stock_list!A339</f>
         <v>NHP</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C339" t="str">
@@ -36748,7 +36746,7 @@
         <f>period_stock_list!A340</f>
         <v>NHV</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C340" t="str">
@@ -36773,8 +36771,8 @@
         <f>period_stock_list!A341</f>
         <v>NKG</v>
       </c>
-      <c r="B341" t="s">
-        <v>1760</v>
+      <c r="B341" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C341" t="str">
         <f>VLOOKUP(A341,full_stock_list!$A:$B,2,0)</f>
@@ -36798,7 +36796,7 @@
         <f>period_stock_list!A342</f>
         <v>NLG</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C342" t="str">
@@ -36823,7 +36821,7 @@
         <f>period_stock_list!A343</f>
         <v>NNC</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C343" t="str">
@@ -36848,8 +36846,8 @@
         <f>period_stock_list!A344</f>
         <v>NO1</v>
       </c>
-      <c r="B344" t="s">
-        <v>1760</v>
+      <c r="B344" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C344" t="str">
         <f>VLOOKUP(A344,full_stock_list!$A:$B,2,0)</f>
@@ -36873,8 +36871,8 @@
         <f>period_stock_list!A345</f>
         <v>NRC</v>
       </c>
-      <c r="B345" t="s">
-        <v>1760</v>
+      <c r="B345" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C345" t="str">
         <f>VLOOKUP(A345,full_stock_list!$A:$B,2,0)</f>
@@ -36898,8 +36896,8 @@
         <f>period_stock_list!A346</f>
         <v>NSH</v>
       </c>
-      <c r="B346" t="s">
-        <v>1759</v>
+      <c r="B346" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C346" t="str">
         <f>VLOOKUP(A346,full_stock_list!$A:$B,2,0)</f>
@@ -36923,7 +36921,7 @@
         <f>period_stock_list!A347</f>
         <v>NT2</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C347" t="str">
@@ -36948,8 +36946,8 @@
         <f>period_stock_list!A348</f>
         <v>NTC</v>
       </c>
-      <c r="B348" t="s">
-        <v>1761</v>
+      <c r="B348" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C348" t="str">
         <f>VLOOKUP(A348,full_stock_list!$A:$B,2,0)</f>
@@ -36973,7 +36971,7 @@
         <f>period_stock_list!A349</f>
         <v>NTL</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C349" t="str">
@@ -36998,8 +36996,8 @@
         <f>period_stock_list!A350</f>
         <v>NTP</v>
       </c>
-      <c r="B350" t="s">
-        <v>1759</v>
+      <c r="B350" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C350" t="str">
         <f>VLOOKUP(A350,full_stock_list!$A:$B,2,0)</f>
@@ -37023,8 +37021,8 @@
         <f>period_stock_list!A351</f>
         <v>NVB</v>
       </c>
-      <c r="B351" t="s">
-        <v>1759</v>
+      <c r="B351" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C351" t="str">
         <f>VLOOKUP(A351,full_stock_list!$A:$B,2,0)</f>
@@ -37048,8 +37046,8 @@
         <f>period_stock_list!A352</f>
         <v>NVL</v>
       </c>
-      <c r="B352" t="s">
-        <v>1760</v>
+      <c r="B352" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C352" t="str">
         <f>VLOOKUP(A352,full_stock_list!$A:$B,2,0)</f>
@@ -37073,7 +37071,7 @@
         <f>period_stock_list!A353</f>
         <v>NVT</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C353" t="str">
@@ -37098,7 +37096,7 @@
         <f>period_stock_list!A354</f>
         <v>OCB</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C354" t="str">
@@ -37123,7 +37121,7 @@
         <f>period_stock_list!A355</f>
         <v>OCH</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C355" t="str">
@@ -37148,8 +37146,8 @@
         <f>period_stock_list!A356</f>
         <v>ODE</v>
       </c>
-      <c r="B356" t="s">
-        <v>1761</v>
+      <c r="B356" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C356" t="str">
         <f>VLOOKUP(A356,full_stock_list!$A:$B,2,0)</f>
@@ -37173,8 +37171,8 @@
         <f>period_stock_list!A357</f>
         <v>OGC</v>
       </c>
-      <c r="B357" t="s">
-        <v>1760</v>
+      <c r="B357" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C357" t="str">
         <f>VLOOKUP(A357,full_stock_list!$A:$B,2,0)</f>
@@ -37198,7 +37196,7 @@
         <f>period_stock_list!A358</f>
         <v>OIL</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C358" t="str">
@@ -37223,7 +37221,7 @@
         <f>period_stock_list!A359</f>
         <v>ORS</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C359" t="str">
@@ -37248,8 +37246,8 @@
         <f>period_stock_list!A360</f>
         <v>PAC</v>
       </c>
-      <c r="B360" t="s">
-        <v>1760</v>
+      <c r="B360" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C360" t="str">
         <f>VLOOKUP(A360,full_stock_list!$A:$B,2,0)</f>
@@ -37273,8 +37271,8 @@
         <f>period_stock_list!A361</f>
         <v>PAN</v>
       </c>
-      <c r="B361" t="s">
-        <v>1761</v>
+      <c r="B361" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C361" t="str">
         <f>VLOOKUP(A361,full_stock_list!$A:$B,2,0)</f>
@@ -37298,8 +37296,8 @@
         <f>period_stock_list!A362</f>
         <v>PAS</v>
       </c>
-      <c r="B362" t="s">
-        <v>1761</v>
+      <c r="B362" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C362" t="str">
         <f>VLOOKUP(A362,full_stock_list!$A:$B,2,0)</f>
@@ -37323,8 +37321,8 @@
         <f>period_stock_list!A363</f>
         <v>PAT</v>
       </c>
-      <c r="B363" t="s">
-        <v>1761</v>
+      <c r="B363" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C363" t="str">
         <f>VLOOKUP(A363,full_stock_list!$A:$B,2,0)</f>
@@ -37348,8 +37346,8 @@
         <f>period_stock_list!A364</f>
         <v>PBC</v>
       </c>
-      <c r="B364" t="s">
-        <v>1761</v>
+      <c r="B364" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C364" t="str">
         <f>VLOOKUP(A364,full_stock_list!$A:$B,2,0)</f>
@@ -37373,8 +37371,8 @@
         <f>period_stock_list!A365</f>
         <v>PBP</v>
       </c>
-      <c r="B365" t="s">
-        <v>1760</v>
+      <c r="B365" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C365" t="str">
         <f>VLOOKUP(A365,full_stock_list!$A:$B,2,0)</f>
@@ -37398,8 +37396,8 @@
         <f>period_stock_list!A366</f>
         <v>PC1</v>
       </c>
-      <c r="B366" t="s">
-        <v>1761</v>
+      <c r="B366" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C366" t="str">
         <f>VLOOKUP(A366,full_stock_list!$A:$B,2,0)</f>
@@ -37423,8 +37421,8 @@
         <f>period_stock_list!A367</f>
         <v>PCG</v>
       </c>
-      <c r="B367" t="s">
-        <v>1760</v>
+      <c r="B367" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C367" t="str">
         <f>VLOOKUP(A367,full_stock_list!$A:$B,2,0)</f>
@@ -37448,8 +37446,8 @@
         <f>period_stock_list!A368</f>
         <v>PCH</v>
       </c>
-      <c r="B368" t="s">
-        <v>1760</v>
+      <c r="B368" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C368" t="str">
         <f>VLOOKUP(A368,full_stock_list!$A:$B,2,0)</f>
@@ -37473,8 +37471,8 @@
         <f>period_stock_list!A369</f>
         <v>PDB</v>
       </c>
-      <c r="B369" t="s">
-        <v>1760</v>
+      <c r="B369" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C369" t="str">
         <f>VLOOKUP(A369,full_stock_list!$A:$B,2,0)</f>
@@ -37498,7 +37496,7 @@
         <f>period_stock_list!A370</f>
         <v>PDR</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C370" t="str">
@@ -37523,8 +37521,8 @@
         <f>period_stock_list!A371</f>
         <v>PDV</v>
       </c>
-      <c r="B371" t="s">
-        <v>1759</v>
+      <c r="B371" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C371" t="str">
         <f>VLOOKUP(A371,full_stock_list!$A:$B,2,0)</f>
@@ -37548,7 +37546,7 @@
         <f>period_stock_list!A372</f>
         <v>PET</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C372" t="str">
@@ -37573,8 +37571,8 @@
         <f>period_stock_list!A373</f>
         <v>PFL</v>
       </c>
-      <c r="B373" t="s">
-        <v>1759</v>
+      <c r="B373" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C373" t="str">
         <f>VLOOKUP(A373,full_stock_list!$A:$B,2,0)</f>
@@ -37598,8 +37596,8 @@
         <f>period_stock_list!A374</f>
         <v>PGB</v>
       </c>
-      <c r="B374" t="s">
-        <v>1759</v>
+      <c r="B374" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C374" t="str">
         <f>VLOOKUP(A374,full_stock_list!$A:$B,2,0)</f>
@@ -37623,8 +37621,8 @@
         <f>period_stock_list!A375</f>
         <v>PGC</v>
       </c>
-      <c r="B375" t="s">
-        <v>1761</v>
+      <c r="B375" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C375" t="str">
         <f>VLOOKUP(A375,full_stock_list!$A:$B,2,0)</f>
@@ -37648,7 +37646,7 @@
         <f>period_stock_list!A376</f>
         <v>PGI</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C376" t="str">
@@ -37673,8 +37671,8 @@
         <f>period_stock_list!A377</f>
         <v>PGN</v>
       </c>
-      <c r="B377" t="s">
-        <v>1759</v>
+      <c r="B377" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C377" t="str">
         <f>VLOOKUP(A377,full_stock_list!$A:$B,2,0)</f>
@@ -37698,8 +37696,8 @@
         <f>period_stock_list!A378</f>
         <v>PGS</v>
       </c>
-      <c r="B378" t="s">
-        <v>1759</v>
+      <c r="B378" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C378" t="str">
         <f>VLOOKUP(A378,full_stock_list!$A:$B,2,0)</f>
@@ -37723,8 +37721,8 @@
         <f>period_stock_list!A379</f>
         <v>PGT</v>
       </c>
-      <c r="B379" t="s">
-        <v>1759</v>
+      <c r="B379" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C379" t="str">
         <f>VLOOKUP(A379,full_stock_list!$A:$B,2,0)</f>
@@ -37748,7 +37746,7 @@
         <f>period_stock_list!A380</f>
         <v>PGV</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C380" t="str">
@@ -37773,8 +37771,8 @@
         <f>period_stock_list!A381</f>
         <v>PHC</v>
       </c>
-      <c r="B381" t="s">
-        <v>1760</v>
+      <c r="B381" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C381" t="str">
         <f>VLOOKUP(A381,full_stock_list!$A:$B,2,0)</f>
@@ -37798,8 +37796,8 @@
         <f>period_stock_list!A382</f>
         <v>PHP</v>
       </c>
-      <c r="B382" t="s">
-        <v>1759</v>
+      <c r="B382" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C382" t="str">
         <f>VLOOKUP(A382,full_stock_list!$A:$B,2,0)</f>
@@ -37823,8 +37821,8 @@
         <f>period_stock_list!A383</f>
         <v>PHR</v>
       </c>
-      <c r="B383" t="s">
-        <v>1761</v>
+      <c r="B383" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C383" t="str">
         <f>VLOOKUP(A383,full_stock_list!$A:$B,2,0)</f>
@@ -37848,8 +37846,8 @@
         <f>period_stock_list!A384</f>
         <v>PIV</v>
       </c>
-      <c r="B384" t="s">
-        <v>1761</v>
+      <c r="B384" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C384" t="str">
         <f>VLOOKUP(A384,full_stock_list!$A:$B,2,0)</f>
@@ -37873,7 +37871,7 @@
         <f>period_stock_list!A385</f>
         <v>PLC</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C385" t="str">
@@ -37898,7 +37896,7 @@
         <f>period_stock_list!A386</f>
         <v>PLP</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C386" t="str">
@@ -37923,8 +37921,8 @@
         <f>period_stock_list!A387</f>
         <v>PLX</v>
       </c>
-      <c r="B387" t="s">
-        <v>1760</v>
+      <c r="B387" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C387" t="str">
         <f>VLOOKUP(A387,full_stock_list!$A:$B,2,0)</f>
@@ -37948,8 +37946,8 @@
         <f>period_stock_list!A388</f>
         <v>PMB</v>
       </c>
-      <c r="B388" t="s">
-        <v>1759</v>
+      <c r="B388" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C388" t="str">
         <f>VLOOKUP(A388,full_stock_list!$A:$B,2,0)</f>
@@ -37973,7 +37971,7 @@
         <f>period_stock_list!A389</f>
         <v>PNJ</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C389" t="str">
@@ -37998,7 +37996,7 @@
         <f>period_stock_list!A390</f>
         <v>POM</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C390" t="str">
@@ -38023,7 +38021,7 @@
         <f>period_stock_list!A391</f>
         <v>POS</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C391" t="str">
@@ -38048,7 +38046,7 @@
         <f>period_stock_list!A392</f>
         <v>POW</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C392" t="str">
@@ -38073,7 +38071,7 @@
         <f>period_stock_list!A393</f>
         <v>PPC</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C393" t="str">
@@ -38098,8 +38096,8 @@
         <f>period_stock_list!A394</f>
         <v>PPH</v>
       </c>
-      <c r="B394" t="s">
-        <v>1761</v>
+      <c r="B394" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C394" t="str">
         <f>VLOOKUP(A394,full_stock_list!$A:$B,2,0)</f>
@@ -38123,8 +38121,8 @@
         <f>period_stock_list!A395</f>
         <v>PPI</v>
       </c>
-      <c r="B395" t="s">
-        <v>1759</v>
+      <c r="B395" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C395" t="str">
         <f>VLOOKUP(A395,full_stock_list!$A:$B,2,0)</f>
@@ -38148,8 +38146,8 @@
         <f>period_stock_list!A396</f>
         <v>PPT</v>
       </c>
-      <c r="B396" t="s">
-        <v>1759</v>
+      <c r="B396" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C396" t="str">
         <f>VLOOKUP(A396,full_stock_list!$A:$B,2,0)</f>
@@ -38173,7 +38171,7 @@
         <f>period_stock_list!A397</f>
         <v>PRE</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C397" t="str">
@@ -38198,8 +38196,8 @@
         <f>period_stock_list!A398</f>
         <v>PRT</v>
       </c>
-      <c r="B398" t="s">
-        <v>1761</v>
+      <c r="B398" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C398" t="str">
         <f>VLOOKUP(A398,full_stock_list!$A:$B,2,0)</f>
@@ -38223,7 +38221,7 @@
         <f>period_stock_list!A399</f>
         <v>PSD</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C399" t="str">
@@ -38248,8 +38246,8 @@
         <f>period_stock_list!A400</f>
         <v>PSE</v>
       </c>
-      <c r="B400" t="s">
-        <v>1759</v>
+      <c r="B400" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C400" t="str">
         <f>VLOOKUP(A400,full_stock_list!$A:$B,2,0)</f>
@@ -38273,7 +38271,7 @@
         <f>period_stock_list!A401</f>
         <v>PSH</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C401" t="str">
@@ -38298,8 +38296,8 @@
         <f>period_stock_list!A402</f>
         <v>PSI</v>
       </c>
-      <c r="B402" t="s">
-        <v>1759</v>
+      <c r="B402" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C402" t="str">
         <f>VLOOKUP(A402,full_stock_list!$A:$B,2,0)</f>
@@ -38323,7 +38321,7 @@
         <f>period_stock_list!A403</f>
         <v>PSP</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C403" t="str">
@@ -38348,8 +38346,8 @@
         <f>period_stock_list!A404</f>
         <v>PSW</v>
       </c>
-      <c r="B404" t="s">
-        <v>1759</v>
+      <c r="B404" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C404" t="str">
         <f>VLOOKUP(A404,full_stock_list!$A:$B,2,0)</f>
@@ -38373,7 +38371,7 @@
         <f>period_stock_list!A405</f>
         <v>PTB</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C405" t="str">
@@ -38398,7 +38396,7 @@
         <f>period_stock_list!A406</f>
         <v>PTC</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C406" t="str">
@@ -38423,7 +38421,7 @@
         <f>period_stock_list!A407</f>
         <v>PTL</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C407" t="str">
@@ -38448,8 +38446,8 @@
         <f>period_stock_list!A408</f>
         <v>PV2</v>
       </c>
-      <c r="B408" t="s">
-        <v>1759</v>
+      <c r="B408" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C408" t="str">
         <f>VLOOKUP(A408,full_stock_list!$A:$B,2,0)</f>
@@ -38473,8 +38471,8 @@
         <f>period_stock_list!A409</f>
         <v>PVB</v>
       </c>
-      <c r="B409" t="s">
-        <v>1759</v>
+      <c r="B409" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C409" t="str">
         <f>VLOOKUP(A409,full_stock_list!$A:$B,2,0)</f>
@@ -38498,8 +38496,8 @@
         <f>period_stock_list!A410</f>
         <v>PVC</v>
       </c>
-      <c r="B410" t="s">
-        <v>1759</v>
+      <c r="B410" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C410" t="str">
         <f>VLOOKUP(A410,full_stock_list!$A:$B,2,0)</f>
@@ -38523,8 +38521,8 @@
         <f>period_stock_list!A411</f>
         <v>PVD</v>
       </c>
-      <c r="B411" t="s">
-        <v>1761</v>
+      <c r="B411" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C411" t="str">
         <f>VLOOKUP(A411,full_stock_list!$A:$B,2,0)</f>
@@ -38548,8 +38546,8 @@
         <f>period_stock_list!A412</f>
         <v>PVG</v>
       </c>
-      <c r="B412" t="s">
-        <v>1759</v>
+      <c r="B412" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C412" t="str">
         <f>VLOOKUP(A412,full_stock_list!$A:$B,2,0)</f>
@@ -38573,7 +38571,7 @@
         <f>period_stock_list!A413</f>
         <v>PVI</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C413" t="str">
@@ -38598,8 +38596,8 @@
         <f>period_stock_list!A414</f>
         <v>PVL</v>
       </c>
-      <c r="B414" t="s">
-        <v>1759</v>
+      <c r="B414" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C414" t="str">
         <f>VLOOKUP(A414,full_stock_list!$A:$B,2,0)</f>
@@ -38623,8 +38621,8 @@
         <f>period_stock_list!A415</f>
         <v>PVM</v>
       </c>
-      <c r="B415" t="s">
-        <v>1759</v>
+      <c r="B415" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C415" t="str">
         <f>VLOOKUP(A415,full_stock_list!$A:$B,2,0)</f>
@@ -38648,8 +38646,8 @@
         <f>period_stock_list!A416</f>
         <v>PVO</v>
       </c>
-      <c r="B416" t="s">
-        <v>1761</v>
+      <c r="B416" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C416" t="str">
         <f>VLOOKUP(A416,full_stock_list!$A:$B,2,0)</f>
@@ -38673,8 +38671,8 @@
         <f>period_stock_list!A417</f>
         <v>PVP</v>
       </c>
-      <c r="B417" t="s">
-        <v>1761</v>
+      <c r="B417" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C417" t="str">
         <f>VLOOKUP(A417,full_stock_list!$A:$B,2,0)</f>
@@ -38698,7 +38696,7 @@
         <f>period_stock_list!A418</f>
         <v>PVR</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C418" t="str">
@@ -38723,7 +38721,7 @@
         <f>period_stock_list!A419</f>
         <v>PVS</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C419" t="str">
@@ -38748,8 +38746,8 @@
         <f>period_stock_list!A420</f>
         <v>PVT</v>
       </c>
-      <c r="B420" t="s">
-        <v>1760</v>
+      <c r="B420" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C420" t="str">
         <f>VLOOKUP(A420,full_stock_list!$A:$B,2,0)</f>
@@ -38773,8 +38771,8 @@
         <f>period_stock_list!A421</f>
         <v>PVV</v>
       </c>
-      <c r="B421" t="s">
-        <v>1759</v>
+      <c r="B421" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C421" t="str">
         <f>VLOOKUP(A421,full_stock_list!$A:$B,2,0)</f>
@@ -38798,7 +38796,7 @@
         <f>period_stock_list!A422</f>
         <v>PVX</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C422" t="str">
@@ -38823,8 +38821,8 @@
         <f>period_stock_list!A423</f>
         <v>PWA</v>
       </c>
-      <c r="B423" t="s">
-        <v>1761</v>
+      <c r="B423" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C423" t="str">
         <f>VLOOKUP(A423,full_stock_list!$A:$B,2,0)</f>
@@ -38848,7 +38846,7 @@
         <f>period_stock_list!A424</f>
         <v>PXI</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C424" t="str">
@@ -38873,8 +38871,8 @@
         <f>period_stock_list!A425</f>
         <v>PXL</v>
       </c>
-      <c r="B425" t="s">
-        <v>1759</v>
+      <c r="B425" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C425" t="str">
         <f>VLOOKUP(A425,full_stock_list!$A:$B,2,0)</f>
@@ -38898,8 +38896,8 @@
         <f>period_stock_list!A426</f>
         <v>PXS</v>
       </c>
-      <c r="B426" t="s">
-        <v>1759</v>
+      <c r="B426" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C426" t="str">
         <f>VLOOKUP(A426,full_stock_list!$A:$B,2,0)</f>
@@ -38923,8 +38921,8 @@
         <f>period_stock_list!A427</f>
         <v>PXT</v>
       </c>
-      <c r="B427" t="s">
-        <v>1759</v>
+      <c r="B427" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C427" t="str">
         <f>VLOOKUP(A427,full_stock_list!$A:$B,2,0)</f>
@@ -38948,7 +38946,7 @@
         <f>period_stock_list!A428</f>
         <v>QBS</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C428" t="str">
@@ -38973,7 +38971,7 @@
         <f>period_stock_list!A429</f>
         <v>QCG</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C429" t="str">
@@ -38998,8 +38996,8 @@
         <f>period_stock_list!A430</f>
         <v>QNC</v>
       </c>
-      <c r="B430" t="s">
-        <v>1761</v>
+      <c r="B430" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C430" t="str">
         <f>VLOOKUP(A430,full_stock_list!$A:$B,2,0)</f>
@@ -39023,8 +39021,8 @@
         <f>period_stock_list!A431</f>
         <v>QNS</v>
       </c>
-      <c r="B431" t="s">
-        <v>1759</v>
+      <c r="B431" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C431" t="str">
         <f>VLOOKUP(A431,full_stock_list!$A:$B,2,0)</f>
@@ -39048,8 +39046,8 @@
         <f>period_stock_list!A432</f>
         <v>QTP</v>
       </c>
-      <c r="B432" t="s">
-        <v>1759</v>
+      <c r="B432" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C432" t="str">
         <f>VLOOKUP(A432,full_stock_list!$A:$B,2,0)</f>
@@ -39073,8 +39071,8 @@
         <f>period_stock_list!A433</f>
         <v>RDP</v>
       </c>
-      <c r="B433" t="s">
-        <v>1760</v>
+      <c r="B433" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C433" t="str">
         <f>VLOOKUP(A433,full_stock_list!$A:$B,2,0)</f>
@@ -39098,7 +39096,7 @@
         <f>period_stock_list!A434</f>
         <v>REE</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C434" t="str">
@@ -39123,8 +39121,8 @@
         <f>period_stock_list!A435</f>
         <v>RIC</v>
       </c>
-      <c r="B435" t="s">
-        <v>1759</v>
+      <c r="B435" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C435" t="str">
         <f>VLOOKUP(A435,full_stock_list!$A:$B,2,0)</f>
@@ -39148,7 +39146,7 @@
         <f>period_stock_list!A436</f>
         <v>ROS</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C436" t="str">
@@ -39173,8 +39171,8 @@
         <f>period_stock_list!A437</f>
         <v>S99</v>
       </c>
-      <c r="B437" t="s">
-        <v>1759</v>
+      <c r="B437" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C437" t="str">
         <f>VLOOKUP(A437,full_stock_list!$A:$B,2,0)</f>
@@ -39198,7 +39196,7 @@
         <f>period_stock_list!A438</f>
         <v>SAB</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C438" t="str">
@@ -39223,7 +39221,7 @@
         <f>period_stock_list!A439</f>
         <v>SAM</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C439" t="str">
@@ -39248,8 +39246,8 @@
         <f>period_stock_list!A440</f>
         <v>SAV</v>
       </c>
-      <c r="B440" t="s">
-        <v>1761</v>
+      <c r="B440" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C440" t="str">
         <f>VLOOKUP(A440,full_stock_list!$A:$B,2,0)</f>
@@ -39273,8 +39271,8 @@
         <f>period_stock_list!A441</f>
         <v>SBA</v>
       </c>
-      <c r="B441" t="s">
-        <v>1760</v>
+      <c r="B441" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C441" t="str">
         <f>VLOOKUP(A441,full_stock_list!$A:$B,2,0)</f>
@@ -39298,8 +39296,8 @@
         <f>period_stock_list!A442</f>
         <v>SBB</v>
       </c>
-      <c r="B442" t="s">
-        <v>1762</v>
+      <c r="B442" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C442" t="str">
         <f>VLOOKUP(A442,full_stock_list!$A:$B,2,0)</f>
@@ -39323,7 +39321,7 @@
         <f>period_stock_list!A443</f>
         <v>SBG</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C443" t="str">
@@ -39348,8 +39346,8 @@
         <f>period_stock_list!A444</f>
         <v>SBS</v>
       </c>
-      <c r="B444" t="s">
-        <v>1761</v>
+      <c r="B444" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C444" t="str">
         <f>VLOOKUP(A444,full_stock_list!$A:$B,2,0)</f>
@@ -39373,7 +39371,7 @@
         <f>period_stock_list!A445</f>
         <v>SBT</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C445" t="str">
@@ -39398,8 +39396,8 @@
         <f>period_stock_list!A446</f>
         <v>SBV</v>
       </c>
-      <c r="B446" t="s">
-        <v>1761</v>
+      <c r="B446" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C446" t="str">
         <f>VLOOKUP(A446,full_stock_list!$A:$B,2,0)</f>
@@ -39423,7 +39421,7 @@
         <f>period_stock_list!A447</f>
         <v>SCG</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C447" t="str">
@@ -39448,8 +39446,8 @@
         <f>period_stock_list!A448</f>
         <v>SCI</v>
       </c>
-      <c r="B448" t="s">
-        <v>1760</v>
+      <c r="B448" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C448" t="str">
         <f>VLOOKUP(A448,full_stock_list!$A:$B,2,0)</f>
@@ -39473,8 +39471,8 @@
         <f>period_stock_list!A449</f>
         <v>SCJ</v>
       </c>
-      <c r="B449" t="s">
-        <v>1759</v>
+      <c r="B449" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C449" t="str">
         <f>VLOOKUP(A449,full_stock_list!$A:$B,2,0)</f>
@@ -39498,7 +39496,7 @@
         <f>period_stock_list!A450</f>
         <v>SCL</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C450" t="str">
@@ -39523,8 +39521,8 @@
         <f>period_stock_list!A451</f>
         <v>SCR</v>
       </c>
-      <c r="B451" t="s">
-        <v>1760</v>
+      <c r="B451" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C451" t="str">
         <f>VLOOKUP(A451,full_stock_list!$A:$B,2,0)</f>
@@ -39548,8 +39546,8 @@
         <f>period_stock_list!A452</f>
         <v>SCS</v>
       </c>
-      <c r="B452" t="s">
-        <v>1761</v>
+      <c r="B452" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C452" t="str">
         <f>VLOOKUP(A452,full_stock_list!$A:$B,2,0)</f>
@@ -39573,7 +39571,7 @@
         <f>period_stock_list!A453</f>
         <v>SD3</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C453" t="str">
@@ -39598,8 +39596,8 @@
         <f>period_stock_list!A454</f>
         <v>SD5</v>
       </c>
-      <c r="B454" t="s">
-        <v>1760</v>
+      <c r="B454" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C454" t="str">
         <f>VLOOKUP(A454,full_stock_list!$A:$B,2,0)</f>
@@ -39623,7 +39621,7 @@
         <f>period_stock_list!A455</f>
         <v>SD6</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C455" t="str">
@@ -39648,7 +39646,7 @@
         <f>period_stock_list!A456</f>
         <v>SD9</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C456" t="str">
@@ -39673,7 +39671,7 @@
         <f>period_stock_list!A457</f>
         <v>SDA</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C457" t="str">
@@ -39698,8 +39696,8 @@
         <f>period_stock_list!A458</f>
         <v>SDD</v>
       </c>
-      <c r="B458" t="s">
-        <v>1761</v>
+      <c r="B458" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C458" t="str">
         <f>VLOOKUP(A458,full_stock_list!$A:$B,2,0)</f>
@@ -39723,8 +39721,8 @@
         <f>period_stock_list!A459</f>
         <v>SDP</v>
       </c>
-      <c r="B459" t="s">
-        <v>1759</v>
+      <c r="B459" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C459" t="str">
         <f>VLOOKUP(A459,full_stock_list!$A:$B,2,0)</f>
@@ -39748,7 +39746,7 @@
         <f>period_stock_list!A460</f>
         <v>SDT</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C460" t="str">
@@ -39773,7 +39771,7 @@
         <f>period_stock_list!A461</f>
         <v>SFG</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C461" t="str">
@@ -39798,8 +39796,8 @@
         <f>period_stock_list!A462</f>
         <v>SGB</v>
       </c>
-      <c r="B462" t="s">
-        <v>1759</v>
+      <c r="B462" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C462" t="str">
         <f>VLOOKUP(A462,full_stock_list!$A:$B,2,0)</f>
@@ -39823,7 +39821,7 @@
         <f>period_stock_list!A463</f>
         <v>SGI</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C463" t="str">
@@ -39848,8 +39846,8 @@
         <f>period_stock_list!A464</f>
         <v>SGP</v>
       </c>
-      <c r="B464" t="s">
-        <v>1761</v>
+      <c r="B464" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C464" t="str">
         <f>VLOOKUP(A464,full_stock_list!$A:$B,2,0)</f>
@@ -39873,7 +39871,7 @@
         <f>period_stock_list!A465</f>
         <v>SGR</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C465" t="str">
@@ -39898,8 +39896,8 @@
         <f>period_stock_list!A466</f>
         <v>SGT</v>
       </c>
-      <c r="B466" t="s">
-        <v>1760</v>
+      <c r="B466" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C466" t="str">
         <f>VLOOKUP(A466,full_stock_list!$A:$B,2,0)</f>
@@ -39923,8 +39921,8 @@
         <f>period_stock_list!A467</f>
         <v>SHA</v>
       </c>
-      <c r="B467" t="s">
-        <v>1760</v>
+      <c r="B467" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C467" t="str">
         <f>VLOOKUP(A467,full_stock_list!$A:$B,2,0)</f>
@@ -39948,8 +39946,8 @@
         <f>period_stock_list!A468</f>
         <v>SHB</v>
       </c>
-      <c r="B468" t="s">
-        <v>1761</v>
+      <c r="B468" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C468" t="str">
         <f>VLOOKUP(A468,full_stock_list!$A:$B,2,0)</f>
@@ -39973,7 +39971,7 @@
         <f>period_stock_list!A469</f>
         <v>SHI</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C469" t="str">
@@ -39998,8 +39996,8 @@
         <f>period_stock_list!A470</f>
         <v>SHN</v>
       </c>
-      <c r="B470" t="s">
-        <v>1760</v>
+      <c r="B470" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C470" t="str">
         <f>VLOOKUP(A470,full_stock_list!$A:$B,2,0)</f>
@@ -40023,7 +40021,7 @@
         <f>period_stock_list!A471</f>
         <v>SHS</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C471" t="str">
@@ -40048,8 +40046,8 @@
         <f>period_stock_list!A472</f>
         <v>SIP</v>
       </c>
-      <c r="B472" t="s">
-        <v>1760</v>
+      <c r="B472" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C472" t="str">
         <f>VLOOKUP(A472,full_stock_list!$A:$B,2,0)</f>
@@ -40073,8 +40071,8 @@
         <f>period_stock_list!A473</f>
         <v>SJD</v>
       </c>
-      <c r="B473" t="s">
-        <v>1760</v>
+      <c r="B473" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C473" t="str">
         <f>VLOOKUP(A473,full_stock_list!$A:$B,2,0)</f>
@@ -40098,8 +40096,8 @@
         <f>period_stock_list!A474</f>
         <v>SJE</v>
       </c>
-      <c r="B474" t="s">
-        <v>1759</v>
+      <c r="B474" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C474" t="str">
         <f>VLOOKUP(A474,full_stock_list!$A:$B,2,0)</f>
@@ -40123,8 +40121,8 @@
         <f>period_stock_list!A475</f>
         <v>SJF</v>
       </c>
-      <c r="B475" t="s">
-        <v>1761</v>
+      <c r="B475" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C475" t="str">
         <f>VLOOKUP(A475,full_stock_list!$A:$B,2,0)</f>
@@ -40148,7 +40146,7 @@
         <f>period_stock_list!A476</f>
         <v>SJM</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C476" t="str">
@@ -40173,7 +40171,7 @@
         <f>period_stock_list!A477</f>
         <v>SJS</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C477" t="str">
@@ -40198,7 +40196,7 @@
         <f>period_stock_list!A478</f>
         <v>SKG</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C478" t="str">
@@ -40223,7 +40221,7 @@
         <f>period_stock_list!A479</f>
         <v>SMC</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C479" t="str">
@@ -40248,8 +40246,8 @@
         <f>period_stock_list!A480</f>
         <v>SMT</v>
       </c>
-      <c r="B480" t="s">
-        <v>1759</v>
+      <c r="B480" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C480" t="str">
         <f>VLOOKUP(A480,full_stock_list!$A:$B,2,0)</f>
@@ -40273,7 +40271,7 @@
         <f>period_stock_list!A481</f>
         <v>SPI</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="C481" t="str">
@@ -40298,8 +40296,8 @@
         <f>period_stock_list!A482</f>
         <v>SRA</v>
       </c>
-      <c r="B482" t="s">
-        <v>1759</v>
+      <c r="B482" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C482" t="str">
         <f>VLOOKUP(A482,full_stock_list!$A:$B,2,0)</f>
@@ -40323,8 +40321,8 @@
         <f>period_stock_list!A483</f>
         <v>SRB</v>
       </c>
-      <c r="B483" t="s">
-        <v>1759</v>
+      <c r="B483" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C483" t="str">
         <f>VLOOKUP(A483,full_stock_list!$A:$B,2,0)</f>
@@ -40348,8 +40346,8 @@
         <f>period_stock_list!A484</f>
         <v>SRT</v>
       </c>
-      <c r="B484" t="s">
-        <v>1759</v>
+      <c r="B484" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C484" t="str">
         <f>VLOOKUP(A484,full_stock_list!$A:$B,2,0)</f>
@@ -40373,8 +40371,8 @@
         <f>period_stock_list!A485</f>
         <v>SSB</v>
       </c>
-      <c r="B485" t="s">
-        <v>1760</v>
+      <c r="B485" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C485" t="str">
         <f>VLOOKUP(A485,full_stock_list!$A:$B,2,0)</f>
@@ -40398,7 +40396,7 @@
         <f>period_stock_list!A486</f>
         <v>SSH</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C486" t="str">
@@ -40423,8 +40421,8 @@
         <f>period_stock_list!A487</f>
         <v>SSI</v>
       </c>
-      <c r="B487" t="s">
-        <v>1760</v>
+      <c r="B487" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C487" t="str">
         <f>VLOOKUP(A487,full_stock_list!$A:$B,2,0)</f>
@@ -40448,8 +40446,8 @@
         <f>period_stock_list!A488</f>
         <v>SSN</v>
       </c>
-      <c r="B488" t="s">
-        <v>1761</v>
+      <c r="B488" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C488" t="str">
         <f>VLOOKUP(A488,full_stock_list!$A:$B,2,0)</f>
@@ -40473,8 +40471,8 @@
         <f>period_stock_list!A489</f>
         <v>ST8</v>
       </c>
-      <c r="B489" t="s">
-        <v>1760</v>
+      <c r="B489" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C489" t="str">
         <f>VLOOKUP(A489,full_stock_list!$A:$B,2,0)</f>
@@ -40498,8 +40496,8 @@
         <f>period_stock_list!A490</f>
         <v>STB</v>
       </c>
-      <c r="B490" t="s">
-        <v>1760</v>
+      <c r="B490" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C490" t="str">
         <f>VLOOKUP(A490,full_stock_list!$A:$B,2,0)</f>
@@ -40523,8 +40521,8 @@
         <f>period_stock_list!A491</f>
         <v>STH</v>
       </c>
-      <c r="B491" t="s">
-        <v>1759</v>
+      <c r="B491" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C491" t="str">
         <f>VLOOKUP(A491,full_stock_list!$A:$B,2,0)</f>
@@ -40548,7 +40546,7 @@
         <f>period_stock_list!A492</f>
         <v>STK</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C492" t="str">
@@ -40573,7 +40571,7 @@
         <f>period_stock_list!A493</f>
         <v>SVD</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C493" t="str">
@@ -40598,8 +40596,8 @@
         <f>period_stock_list!A494</f>
         <v>SVN</v>
       </c>
-      <c r="B494" t="s">
-        <v>1760</v>
+      <c r="B494" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C494" t="str">
         <f>VLOOKUP(A494,full_stock_list!$A:$B,2,0)</f>
@@ -40623,7 +40621,7 @@
         <f>period_stock_list!A495</f>
         <v>SVT</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C495" t="str">
@@ -40648,7 +40646,7 @@
         <f>period_stock_list!A496</f>
         <v>SWC</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C496" t="str">
@@ -40673,8 +40671,8 @@
         <f>period_stock_list!A497</f>
         <v>SZC</v>
       </c>
-      <c r="B497" t="s">
-        <v>1761</v>
+      <c r="B497" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C497" t="str">
         <f>VLOOKUP(A497,full_stock_list!$A:$B,2,0)</f>
@@ -40698,7 +40696,7 @@
         <f>period_stock_list!A498</f>
         <v>SZL</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C498" t="str">
@@ -40723,8 +40721,8 @@
         <f>period_stock_list!A499</f>
         <v>TA9</v>
       </c>
-      <c r="B499" t="s">
-        <v>1760</v>
+      <c r="B499" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C499" t="str">
         <f>VLOOKUP(A499,full_stock_list!$A:$B,2,0)</f>
@@ -40748,8 +40746,8 @@
         <f>period_stock_list!A500</f>
         <v>TAL</v>
       </c>
-      <c r="B500" t="s">
-        <v>1759</v>
+      <c r="B500" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C500" t="str">
         <f>VLOOKUP(A500,full_stock_list!$A:$B,2,0)</f>
@@ -40773,8 +40771,8 @@
         <f>period_stock_list!A501</f>
         <v>TAR</v>
       </c>
-      <c r="B501" t="s">
-        <v>1759</v>
+      <c r="B501" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C501" t="str">
         <f>VLOOKUP(A501,full_stock_list!$A:$B,2,0)</f>
@@ -40798,7 +40796,7 @@
         <f>period_stock_list!A502</f>
         <v>TCB</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C502" t="str">
@@ -40823,7 +40821,7 @@
         <f>period_stock_list!A503</f>
         <v>TCD</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C503" t="str">
@@ -40848,7 +40846,7 @@
         <f>period_stock_list!A504</f>
         <v>TCH</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C504" t="str">
@@ -40873,8 +40871,8 @@
         <f>period_stock_list!A505</f>
         <v>TCI</v>
       </c>
-      <c r="B505" t="s">
-        <v>1759</v>
+      <c r="B505" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C505" t="str">
         <f>VLOOKUP(A505,full_stock_list!$A:$B,2,0)</f>
@@ -40898,7 +40896,7 @@
         <f>period_stock_list!A506</f>
         <v>TCL</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C506" t="str">
@@ -40923,7 +40921,7 @@
         <f>period_stock_list!A507</f>
         <v>TCM</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C507" t="str">
@@ -40948,7 +40946,7 @@
         <f>period_stock_list!A508</f>
         <v>TCO</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C508" t="str">
@@ -40973,7 +40971,7 @@
         <f>period_stock_list!A509</f>
         <v>TCW</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="C509" t="str">
@@ -40998,7 +40996,7 @@
         <f>period_stock_list!A510</f>
         <v>TDC</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C510" t="str">
@@ -41023,8 +41021,8 @@
         <f>period_stock_list!A511</f>
         <v>TDG</v>
       </c>
-      <c r="B511" t="s">
-        <v>1760</v>
+      <c r="B511" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C511" t="str">
         <f>VLOOKUP(A511,full_stock_list!$A:$B,2,0)</f>
@@ -41048,8 +41046,8 @@
         <f>period_stock_list!A512</f>
         <v>TDH</v>
       </c>
-      <c r="B512" t="s">
-        <v>1761</v>
+      <c r="B512" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C512" t="str">
         <f>VLOOKUP(A512,full_stock_list!$A:$B,2,0)</f>
@@ -41073,8 +41071,8 @@
         <f>period_stock_list!A513</f>
         <v>TDM</v>
       </c>
-      <c r="B513" t="s">
-        <v>1760</v>
+      <c r="B513" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C513" t="str">
         <f>VLOOKUP(A513,full_stock_list!$A:$B,2,0)</f>
@@ -41098,8 +41096,8 @@
         <f>period_stock_list!A514</f>
         <v>TDP</v>
       </c>
-      <c r="B514" t="s">
-        <v>1761</v>
+      <c r="B514" s="4" t="s">
+        <v>1759</v>
       </c>
       <c r="C514" t="str">
         <f>VLOOKUP(A514,full_stock_list!$A:$B,2,0)</f>
@@ -41123,8 +41121,8 @@
         <f>period_stock_list!A515</f>
         <v>TDT</v>
       </c>
-      <c r="B515" t="s">
-        <v>1760</v>
+      <c r="B515" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C515" t="str">
         <f>VLOOKUP(A515,full_stock_list!$A:$B,2,0)</f>
@@ -41148,7 +41146,7 @@
         <f>period_stock_list!A516</f>
         <v>TEG</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C516" t="str">
@@ -41173,8 +41171,8 @@
         <f>period_stock_list!A517</f>
         <v>TGG</v>
       </c>
-      <c r="B517" t="s">
-        <v>1759</v>
+      <c r="B517" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C517" t="str">
         <f>VLOOKUP(A517,full_stock_list!$A:$B,2,0)</f>
@@ -41198,8 +41196,8 @@
         <f>period_stock_list!A518</f>
         <v>THD</v>
       </c>
-      <c r="B518" t="s">
-        <v>1759</v>
+      <c r="B518" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C518" t="str">
         <f>VLOOKUP(A518,full_stock_list!$A:$B,2,0)</f>
@@ -41223,7 +41221,7 @@
         <f>period_stock_list!A519</f>
         <v>THG</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C519" t="str">
@@ -41248,8 +41246,8 @@
         <f>period_stock_list!A520</f>
         <v>THT</v>
       </c>
-      <c r="B520" t="s">
-        <v>1759</v>
+      <c r="B520" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C520" t="str">
         <f>VLOOKUP(A520,full_stock_list!$A:$B,2,0)</f>
@@ -41273,8 +41271,8 @@
         <f>period_stock_list!A521</f>
         <v>TID</v>
       </c>
-      <c r="B521" t="s">
-        <v>1759</v>
+      <c r="B521" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C521" t="str">
         <f>VLOOKUP(A521,full_stock_list!$A:$B,2,0)</f>
@@ -41298,8 +41296,8 @@
         <f>period_stock_list!A522</f>
         <v>TIG</v>
       </c>
-      <c r="B522" t="s">
-        <v>1759</v>
+      <c r="B522" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C522" t="str">
         <f>VLOOKUP(A522,full_stock_list!$A:$B,2,0)</f>
@@ -41323,8 +41321,8 @@
         <f>period_stock_list!A523</f>
         <v>TIN</v>
       </c>
-      <c r="B523" t="s">
-        <v>1759</v>
+      <c r="B523" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C523" t="str">
         <f>VLOOKUP(A523,full_stock_list!$A:$B,2,0)</f>
@@ -41348,7 +41346,7 @@
         <f>period_stock_list!A524</f>
         <v>TIP</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C524" t="str">
@@ -41373,8 +41371,8 @@
         <f>period_stock_list!A525</f>
         <v>TIS</v>
       </c>
-      <c r="B525" t="s">
-        <v>1759</v>
+      <c r="B525" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C525" t="str">
         <f>VLOOKUP(A525,full_stock_list!$A:$B,2,0)</f>
@@ -41398,8 +41396,8 @@
         <f>period_stock_list!A526</f>
         <v>TKG</v>
       </c>
-      <c r="B526" t="s">
-        <v>1759</v>
+      <c r="B526" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C526" t="str">
         <f>VLOOKUP(A526,full_stock_list!$A:$B,2,0)</f>
@@ -41423,8 +41421,8 @@
         <f>period_stock_list!A527</f>
         <v>TL4</v>
       </c>
-      <c r="B527" t="s">
-        <v>1759</v>
+      <c r="B527" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C527" t="str">
         <f>VLOOKUP(A527,full_stock_list!$A:$B,2,0)</f>
@@ -41448,7 +41446,7 @@
         <f>period_stock_list!A528</f>
         <v>TLD</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C528" t="str">
@@ -41473,7 +41471,7 @@
         <f>period_stock_list!A529</f>
         <v>TLG</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C529" t="str">
@@ -41498,7 +41496,7 @@
         <f>period_stock_list!A530</f>
         <v>TLH</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C530" t="str">
@@ -41523,7 +41521,7 @@
         <f>period_stock_list!A531</f>
         <v>TMS</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C531" t="str">
@@ -41548,7 +41546,7 @@
         <f>period_stock_list!A532</f>
         <v>TMT</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C532" t="str">
@@ -41573,7 +41571,7 @@
         <f>period_stock_list!A533</f>
         <v>TNA</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C533" t="str">
@@ -41598,8 +41596,8 @@
         <f>period_stock_list!A534</f>
         <v>TNG</v>
       </c>
-      <c r="B534" t="s">
-        <v>1759</v>
+      <c r="B534" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C534" t="str">
         <f>VLOOKUP(A534,full_stock_list!$A:$B,2,0)</f>
@@ -41623,7 +41621,7 @@
         <f>period_stock_list!A535</f>
         <v>TNH</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C535" t="str">
@@ -41648,7 +41646,7 @@
         <f>period_stock_list!A536</f>
         <v>TNI</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C536" t="str">
@@ -41673,8 +41671,8 @@
         <f>period_stock_list!A537</f>
         <v>TNS</v>
       </c>
-      <c r="B537" t="s">
-        <v>1759</v>
+      <c r="B537" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C537" t="str">
         <f>VLOOKUP(A537,full_stock_list!$A:$B,2,0)</f>
@@ -41698,7 +41696,7 @@
         <f>period_stock_list!A538</f>
         <v>TNT</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C538" t="str">
@@ -41723,7 +41721,7 @@
         <f>period_stock_list!A539</f>
         <v>TPB</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C539" t="str">
@@ -41748,7 +41746,7 @@
         <f>period_stock_list!A540</f>
         <v>TSC</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C540" t="str">
@@ -41773,7 +41771,7 @@
         <f>period_stock_list!A541</f>
         <v>TTA</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C541" t="str">
@@ -41798,8 +41796,8 @@
         <f>period_stock_list!A542</f>
         <v>TTB</v>
       </c>
-      <c r="B542" t="s">
-        <v>1759</v>
+      <c r="B542" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C542" t="str">
         <f>VLOOKUP(A542,full_stock_list!$A:$B,2,0)</f>
@@ -41823,7 +41821,7 @@
         <f>period_stock_list!A543</f>
         <v>TTF</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C543" t="str">
@@ -41848,8 +41846,8 @@
         <f>period_stock_list!A544</f>
         <v>TTH</v>
       </c>
-      <c r="B544" t="s">
-        <v>1759</v>
+      <c r="B544" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C544" t="str">
         <f>VLOOKUP(A544,full_stock_list!$A:$B,2,0)</f>
@@ -41873,8 +41871,8 @@
         <f>period_stock_list!A545</f>
         <v>TTN</v>
       </c>
-      <c r="B545" t="s">
-        <v>1759</v>
+      <c r="B545" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C545" t="str">
         <f>VLOOKUP(A545,full_stock_list!$A:$B,2,0)</f>
@@ -41898,8 +41896,8 @@
         <f>period_stock_list!A546</f>
         <v>TTZ</v>
       </c>
-      <c r="B546" t="s">
-        <v>1759</v>
+      <c r="B546" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C546" t="str">
         <f>VLOOKUP(A546,full_stock_list!$A:$B,2,0)</f>
@@ -41923,7 +41921,7 @@
         <f>period_stock_list!A547</f>
         <v>TV2</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C547" t="str">
@@ -41948,8 +41946,8 @@
         <f>period_stock_list!A548</f>
         <v>TV3</v>
       </c>
-      <c r="B548" t="s">
-        <v>1759</v>
+      <c r="B548" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C548" t="str">
         <f>VLOOKUP(A548,full_stock_list!$A:$B,2,0)</f>
@@ -41973,7 +41971,7 @@
         <f>period_stock_list!A549</f>
         <v>TVB</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C549" t="str">
@@ -41998,8 +41996,8 @@
         <f>period_stock_list!A550</f>
         <v>TVC</v>
       </c>
-      <c r="B550" t="s">
-        <v>1759</v>
+      <c r="B550" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C550" t="str">
         <f>VLOOKUP(A550,full_stock_list!$A:$B,2,0)</f>
@@ -42023,8 +42021,8 @@
         <f>period_stock_list!A551</f>
         <v>TVD</v>
       </c>
-      <c r="B551" t="s">
-        <v>1759</v>
+      <c r="B551" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C551" t="str">
         <f>VLOOKUP(A551,full_stock_list!$A:$B,2,0)</f>
@@ -42048,8 +42046,8 @@
         <f>period_stock_list!A552</f>
         <v>TVN</v>
       </c>
-      <c r="B552" t="s">
-        <v>1759</v>
+      <c r="B552" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C552" t="str">
         <f>VLOOKUP(A552,full_stock_list!$A:$B,2,0)</f>
@@ -42073,7 +42071,7 @@
         <f>period_stock_list!A553</f>
         <v>TVS</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C553" t="str">
@@ -42098,7 +42096,7 @@
         <f>period_stock_list!A554</f>
         <v>TYA</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C554" t="str">
@@ -42123,8 +42121,8 @@
         <f>period_stock_list!A555</f>
         <v>UDC</v>
       </c>
-      <c r="B555" t="s">
-        <v>1759</v>
+      <c r="B555" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C555" t="str">
         <f>VLOOKUP(A555,full_stock_list!$A:$B,2,0)</f>
@@ -42148,8 +42146,8 @@
         <f>period_stock_list!A556</f>
         <v>UDJ</v>
       </c>
-      <c r="B556" t="s">
-        <v>1759</v>
+      <c r="B556" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C556" t="str">
         <f>VLOOKUP(A556,full_stock_list!$A:$B,2,0)</f>
@@ -42173,8 +42171,8 @@
         <f>period_stock_list!A557</f>
         <v>V21</v>
       </c>
-      <c r="B557" t="s">
-        <v>1759</v>
+      <c r="B557" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C557" t="str">
         <f>VLOOKUP(A557,full_stock_list!$A:$B,2,0)</f>
@@ -42198,8 +42196,8 @@
         <f>period_stock_list!A558</f>
         <v>VAB</v>
       </c>
-      <c r="B558" t="s">
-        <v>1759</v>
+      <c r="B558" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C558" t="str">
         <f>VLOOKUP(A558,full_stock_list!$A:$B,2,0)</f>
@@ -42223,8 +42221,8 @@
         <f>period_stock_list!A559</f>
         <v>VBB</v>
       </c>
-      <c r="B559" t="s">
-        <v>1759</v>
+      <c r="B559" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C559" t="str">
         <f>VLOOKUP(A559,full_stock_list!$A:$B,2,0)</f>
@@ -42248,8 +42246,8 @@
         <f>period_stock_list!A560</f>
         <v>VC1</v>
       </c>
-      <c r="B560" t="s">
-        <v>1759</v>
+      <c r="B560" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C560" t="str">
         <f>VLOOKUP(A560,full_stock_list!$A:$B,2,0)</f>
@@ -42273,8 +42271,8 @@
         <f>period_stock_list!A561</f>
         <v>VC2</v>
       </c>
-      <c r="B561" t="s">
-        <v>1759</v>
+      <c r="B561" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C561" t="str">
         <f>VLOOKUP(A561,full_stock_list!$A:$B,2,0)</f>
@@ -42298,8 +42296,8 @@
         <f>period_stock_list!A562</f>
         <v>VC3</v>
       </c>
-      <c r="B562" t="s">
-        <v>1759</v>
+      <c r="B562" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C562" t="str">
         <f>VLOOKUP(A562,full_stock_list!$A:$B,2,0)</f>
@@ -42323,8 +42321,8 @@
         <f>period_stock_list!A563</f>
         <v>VC7</v>
       </c>
-      <c r="B563" t="s">
-        <v>1759</v>
+      <c r="B563" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C563" t="str">
         <f>VLOOKUP(A563,full_stock_list!$A:$B,2,0)</f>
@@ -42348,8 +42346,8 @@
         <f>period_stock_list!A564</f>
         <v>VC9</v>
       </c>
-      <c r="B564" t="s">
-        <v>1759</v>
+      <c r="B564" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C564" t="str">
         <f>VLOOKUP(A564,full_stock_list!$A:$B,2,0)</f>
@@ -42373,7 +42371,7 @@
         <f>period_stock_list!A565</f>
         <v>VCB</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C565" t="str">
@@ -42398,8 +42396,8 @@
         <f>period_stock_list!A566</f>
         <v>VCC</v>
       </c>
-      <c r="B566" t="s">
-        <v>1759</v>
+      <c r="B566" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C566" t="str">
         <f>VLOOKUP(A566,full_stock_list!$A:$B,2,0)</f>
@@ -42423,7 +42421,7 @@
         <f>period_stock_list!A567</f>
         <v>VCG</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B567" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C567" t="str">
@@ -42448,7 +42446,7 @@
         <f>period_stock_list!A568</f>
         <v>VCI</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C568" t="str">
@@ -42473,8 +42471,8 @@
         <f>period_stock_list!A569</f>
         <v>VCR</v>
       </c>
-      <c r="B569" t="s">
-        <v>1759</v>
+      <c r="B569" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C569" t="str">
         <f>VLOOKUP(A569,full_stock_list!$A:$B,2,0)</f>
@@ -42498,8 +42496,8 @@
         <f>period_stock_list!A570</f>
         <v>VCS</v>
       </c>
-      <c r="B570" t="s">
-        <v>1759</v>
+      <c r="B570" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C570" t="str">
         <f>VLOOKUP(A570,full_stock_list!$A:$B,2,0)</f>
@@ -42523,7 +42521,7 @@
         <f>period_stock_list!A571</f>
         <v>VDS</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C571" t="str">
@@ -42548,8 +42546,8 @@
         <f>period_stock_list!A572</f>
         <v>VE9</v>
       </c>
-      <c r="B572" t="s">
-        <v>1759</v>
+      <c r="B572" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C572" t="str">
         <f>VLOOKUP(A572,full_stock_list!$A:$B,2,0)</f>
@@ -42573,8 +42571,8 @@
         <f>period_stock_list!A573</f>
         <v>VEA</v>
       </c>
-      <c r="B573" t="s">
-        <v>1759</v>
+      <c r="B573" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C573" t="str">
         <f>VLOOKUP(A573,full_stock_list!$A:$B,2,0)</f>
@@ -42598,8 +42596,8 @@
         <f>period_stock_list!A574</f>
         <v>VEC</v>
       </c>
-      <c r="B574" t="s">
-        <v>1759</v>
+      <c r="B574" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C574" t="str">
         <f>VLOOKUP(A574,full_stock_list!$A:$B,2,0)</f>
@@ -42623,7 +42621,7 @@
         <f>period_stock_list!A575</f>
         <v>VFG</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C575" t="str">
@@ -42648,8 +42646,8 @@
         <f>period_stock_list!A576</f>
         <v>VFS</v>
       </c>
-      <c r="B576" t="s">
-        <v>1759</v>
+      <c r="B576" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C576" t="str">
         <f>VLOOKUP(A576,full_stock_list!$A:$B,2,0)</f>
@@ -42673,7 +42671,7 @@
         <f>period_stock_list!A577</f>
         <v>VGC</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C577" t="str">
@@ -42698,8 +42696,8 @@
         <f>period_stock_list!A578</f>
         <v>VGG</v>
       </c>
-      <c r="B578" t="s">
-        <v>1759</v>
+      <c r="B578" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C578" t="str">
         <f>VLOOKUP(A578,full_stock_list!$A:$B,2,0)</f>
@@ -42723,8 +42721,8 @@
         <f>period_stock_list!A579</f>
         <v>VGI</v>
       </c>
-      <c r="B579" t="s">
-        <v>1759</v>
+      <c r="B579" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C579" t="str">
         <f>VLOOKUP(A579,full_stock_list!$A:$B,2,0)</f>
@@ -42748,8 +42746,8 @@
         <f>period_stock_list!A580</f>
         <v>VGS</v>
       </c>
-      <c r="B580" t="s">
-        <v>1759</v>
+      <c r="B580" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C580" t="str">
         <f>VLOOKUP(A580,full_stock_list!$A:$B,2,0)</f>
@@ -42773,8 +42771,8 @@
         <f>period_stock_list!A581</f>
         <v>VGT</v>
       </c>
-      <c r="B581" t="s">
-        <v>1759</v>
+      <c r="B581" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C581" t="str">
         <f>VLOOKUP(A581,full_stock_list!$A:$B,2,0)</f>
@@ -42798,7 +42796,7 @@
         <f>period_stock_list!A582</f>
         <v>VHC</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C582" t="str">
@@ -42823,8 +42821,8 @@
         <f>period_stock_list!A583</f>
         <v>VHE</v>
       </c>
-      <c r="B583" t="s">
-        <v>1759</v>
+      <c r="B583" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C583" t="str">
         <f>VLOOKUP(A583,full_stock_list!$A:$B,2,0)</f>
@@ -42848,8 +42846,8 @@
         <f>period_stock_list!A584</f>
         <v>VHG</v>
       </c>
-      <c r="B584" t="s">
-        <v>1759</v>
+      <c r="B584" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C584" t="str">
         <f>VLOOKUP(A584,full_stock_list!$A:$B,2,0)</f>
@@ -42873,7 +42871,7 @@
         <f>period_stock_list!A585</f>
         <v>VHM</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C585" t="str">
@@ -42898,7 +42896,7 @@
         <f>period_stock_list!A586</f>
         <v>VIB</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B586" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C586" t="str">
@@ -42923,7 +42921,7 @@
         <f>period_stock_list!A587</f>
         <v>VIC</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C587" t="str">
@@ -42948,7 +42946,7 @@
         <f>period_stock_list!A588</f>
         <v>VID</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B588" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C588" t="str">
@@ -42973,8 +42971,8 @@
         <f>period_stock_list!A589</f>
         <v>VIG</v>
       </c>
-      <c r="B589" t="s">
-        <v>1759</v>
+      <c r="B589" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C589" t="str">
         <f>VLOOKUP(A589,full_stock_list!$A:$B,2,0)</f>
@@ -42998,7 +42996,7 @@
         <f>period_stock_list!A590</f>
         <v>VIP</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B590" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C590" t="str">
@@ -43023,8 +43021,8 @@
         <f>period_stock_list!A591</f>
         <v>VIT</v>
       </c>
-      <c r="B591" t="s">
-        <v>1759</v>
+      <c r="B591" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C591" t="str">
         <f>VLOOKUP(A591,full_stock_list!$A:$B,2,0)</f>
@@ -43048,7 +43046,7 @@
         <f>period_stock_list!A592</f>
         <v>VIX</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B592" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C592" t="str">
@@ -43073,7 +43071,7 @@
         <f>period_stock_list!A593</f>
         <v>VJC</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C593" t="str">
@@ -43098,8 +43096,8 @@
         <f>period_stock_list!A594</f>
         <v>VKC</v>
       </c>
-      <c r="B594" t="s">
-        <v>1759</v>
+      <c r="B594" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C594" t="str">
         <f>VLOOKUP(A594,full_stock_list!$A:$B,2,0)</f>
@@ -43123,8 +43121,8 @@
         <f>period_stock_list!A595</f>
         <v>VLB</v>
       </c>
-      <c r="B595" t="s">
-        <v>1759</v>
+      <c r="B595" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C595" t="str">
         <f>VLOOKUP(A595,full_stock_list!$A:$B,2,0)</f>
@@ -43148,8 +43146,8 @@
         <f>period_stock_list!A596</f>
         <v>VLC</v>
       </c>
-      <c r="B596" t="s">
-        <v>1759</v>
+      <c r="B596" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C596" t="str">
         <f>VLOOKUP(A596,full_stock_list!$A:$B,2,0)</f>
@@ -43173,8 +43171,8 @@
         <f>period_stock_list!A597</f>
         <v>VLG</v>
       </c>
-      <c r="B597" t="s">
-        <v>1759</v>
+      <c r="B597" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C597" t="str">
         <f>VLOOKUP(A597,full_stock_list!$A:$B,2,0)</f>
@@ -43198,8 +43196,8 @@
         <f>period_stock_list!A598</f>
         <v>VMC</v>
       </c>
-      <c r="B598" t="s">
-        <v>1759</v>
+      <c r="B598" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C598" t="str">
         <f>VLOOKUP(A598,full_stock_list!$A:$B,2,0)</f>
@@ -43223,7 +43221,7 @@
         <f>period_stock_list!A599</f>
         <v>VMD</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C599" t="str">
@@ -43248,8 +43246,8 @@
         <f>period_stock_list!A600</f>
         <v>VNA</v>
       </c>
-      <c r="B600" t="s">
-        <v>1759</v>
+      <c r="B600" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C600" t="str">
         <f>VLOOKUP(A600,full_stock_list!$A:$B,2,0)</f>
@@ -43273,8 +43271,8 @@
         <f>period_stock_list!A601</f>
         <v>VNB</v>
       </c>
-      <c r="B601" t="s">
-        <v>1759</v>
+      <c r="B601" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C601" t="str">
         <f>VLOOKUP(A601,full_stock_list!$A:$B,2,0)</f>
@@ -43298,7 +43296,7 @@
         <f>period_stock_list!A602</f>
         <v>VND</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B602" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C602" t="str">
@@ -43323,7 +43321,7 @@
         <f>period_stock_list!A603</f>
         <v>VNE</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C603" t="str">
@@ -43348,7 +43346,7 @@
         <f>period_stock_list!A604</f>
         <v>VNG</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B604" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C604" t="str">
@@ -43373,8 +43371,8 @@
         <f>period_stock_list!A605</f>
         <v>VNH</v>
       </c>
-      <c r="B605" t="s">
-        <v>1759</v>
+      <c r="B605" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C605" t="str">
         <f>VLOOKUP(A605,full_stock_list!$A:$B,2,0)</f>
@@ -43398,7 +43396,7 @@
         <f>period_stock_list!A606</f>
         <v>VNL</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C606" t="str">
@@ -43423,7 +43421,7 @@
         <f>period_stock_list!A607</f>
         <v>VNM</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C607" t="str">
@@ -43448,8 +43446,8 @@
         <f>period_stock_list!A608</f>
         <v>VNP</v>
       </c>
-      <c r="B608" t="s">
-        <v>1759</v>
+      <c r="B608" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C608" t="str">
         <f>VLOOKUP(A608,full_stock_list!$A:$B,2,0)</f>
@@ -43473,8 +43471,8 @@
         <f>period_stock_list!A609</f>
         <v>VNR</v>
       </c>
-      <c r="B609" t="s">
-        <v>1759</v>
+      <c r="B609" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C609" t="str">
         <f>VLOOKUP(A609,full_stock_list!$A:$B,2,0)</f>
@@ -43498,7 +43496,7 @@
         <f>period_stock_list!A610</f>
         <v>VNS</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C610" t="str">
@@ -43523,8 +43521,8 @@
         <f>period_stock_list!A611</f>
         <v>VOC</v>
       </c>
-      <c r="B611" t="s">
-        <v>1759</v>
+      <c r="B611" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C611" t="str">
         <f>VLOOKUP(A611,full_stock_list!$A:$B,2,0)</f>
@@ -43548,7 +43546,7 @@
         <f>period_stock_list!A612</f>
         <v>VOS</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B612" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C612" t="str">
@@ -43573,7 +43571,7 @@
         <f>period_stock_list!A613</f>
         <v>VPB</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C613" t="str">
@@ -43598,7 +43596,7 @@
         <f>period_stock_list!A614</f>
         <v>VPD</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C614" t="str">
@@ -43623,7 +43621,7 @@
         <f>period_stock_list!A615</f>
         <v>VPG</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C615" t="str">
@@ -43648,7 +43646,7 @@
         <f>period_stock_list!A616</f>
         <v>VPH</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C616" t="str">
@@ -43673,7 +43671,7 @@
         <f>period_stock_list!A617</f>
         <v>VPI</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C617" t="str">
@@ -43698,7 +43696,7 @@
         <f>period_stock_list!A618</f>
         <v>VRC</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C618" t="str">
@@ -43723,7 +43721,7 @@
         <f>period_stock_list!A619</f>
         <v>VRE</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C619" t="str">
@@ -43748,8 +43746,8 @@
         <f>period_stock_list!A620</f>
         <v>VRG</v>
       </c>
-      <c r="B620" t="s">
-        <v>1759</v>
+      <c r="B620" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C620" t="str">
         <f>VLOOKUP(A620,full_stock_list!$A:$B,2,0)</f>
@@ -43773,7 +43771,7 @@
         <f>period_stock_list!A621</f>
         <v>VSC</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C621" t="str">
@@ -43798,8 +43796,8 @@
         <f>period_stock_list!A622</f>
         <v>VSE</v>
       </c>
-      <c r="B622" t="s">
-        <v>1759</v>
+      <c r="B622" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C622" t="str">
         <f>VLOOKUP(A622,full_stock_list!$A:$B,2,0)</f>
@@ -43823,7 +43821,7 @@
         <f>period_stock_list!A623</f>
         <v>VSH</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C623" t="str">
@@ -43848,8 +43846,8 @@
         <f>period_stock_list!A624</f>
         <v>VST</v>
       </c>
-      <c r="B624" t="s">
-        <v>1759</v>
+      <c r="B624" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C624" t="str">
         <f>VLOOKUP(A624,full_stock_list!$A:$B,2,0)</f>
@@ -43873,8 +43871,8 @@
         <f>period_stock_list!A625</f>
         <v>VTD</v>
       </c>
-      <c r="B625" t="s">
-        <v>1759</v>
+      <c r="B625" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C625" t="str">
         <f>VLOOKUP(A625,full_stock_list!$A:$B,2,0)</f>
@@ -43898,8 +43896,8 @@
         <f>period_stock_list!A626</f>
         <v>VTK</v>
       </c>
-      <c r="B626" t="s">
-        <v>1759</v>
+      <c r="B626" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C626" t="str">
         <f>VLOOKUP(A626,full_stock_list!$A:$B,2,0)</f>
@@ -43923,7 +43921,7 @@
         <f>period_stock_list!A627</f>
         <v>VTO</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C627" t="str">
@@ -43948,8 +43946,8 @@
         <f>period_stock_list!A628</f>
         <v>VTP</v>
       </c>
-      <c r="B628" t="s">
-        <v>1759</v>
+      <c r="B628" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C628" t="str">
         <f>VLOOKUP(A628,full_stock_list!$A:$B,2,0)</f>
@@ -43973,8 +43971,8 @@
         <f>period_stock_list!A629</f>
         <v>VTR</v>
       </c>
-      <c r="B629" t="s">
-        <v>1759</v>
+      <c r="B629" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C629" t="str">
         <f>VLOOKUP(A629,full_stock_list!$A:$B,2,0)</f>
@@ -43998,8 +43996,8 @@
         <f>period_stock_list!A630</f>
         <v>VTV</v>
       </c>
-      <c r="B630" t="s">
-        <v>1759</v>
+      <c r="B630" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C630" t="str">
         <f>VLOOKUP(A630,full_stock_list!$A:$B,2,0)</f>
@@ -44023,8 +44021,8 @@
         <f>period_stock_list!A631</f>
         <v>VTZ</v>
       </c>
-      <c r="B631" t="s">
-        <v>1759</v>
+      <c r="B631" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C631" t="str">
         <f>VLOOKUP(A631,full_stock_list!$A:$B,2,0)</f>
@@ -44048,8 +44046,8 @@
         <f>period_stock_list!A632</f>
         <v>VUA</v>
       </c>
-      <c r="B632" t="s">
-        <v>1759</v>
+      <c r="B632" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C632" t="str">
         <f>VLOOKUP(A632,full_stock_list!$A:$B,2,0)</f>
@@ -44073,8 +44071,8 @@
         <f>period_stock_list!A633</f>
         <v>WSS</v>
       </c>
-      <c r="B633" t="s">
-        <v>1759</v>
+      <c r="B633" s="4" t="s">
+        <v>1761</v>
       </c>
       <c r="C633" t="str">
         <f>VLOOKUP(A633,full_stock_list!$A:$B,2,0)</f>
@@ -44098,8 +44096,8 @@
         <f>period_stock_list!A634</f>
         <v>XMC</v>
       </c>
-      <c r="B634" t="s">
-        <v>1759</v>
+      <c r="B634" s="4" t="s">
+        <v>1760</v>
       </c>
       <c r="C634" t="str">
         <f>VLOOKUP(A634,full_stock_list!$A:$B,2,0)</f>
@@ -44123,7 +44121,7 @@
         <f>period_stock_list!A635</f>
         <v>YEG</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="C635" t="str">
@@ -44144,7 +44142,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F635" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
